--- a/Document/한창우/계획서/한창우_공부_계획서.xlsx
+++ b/Document/한창우/계획서/한창우_공부_계획서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hcw97\Desktop\종설기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD51E93-EF88-4927-82E1-E62A5B838740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF97B581-1ACE-4C8E-BCF3-0D373D7CFA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{417CD646-B2CC-4A5D-9584-542F13DE69F3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="40">
   <si>
     <t>일별</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -802,6 +802,60 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(인프런)                                                      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>서버 강의 복습</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 및                                                             유튜브 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"최흥배 IOCP 채팅서버 구현" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                   </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -810,7 +864,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;/&quot;d;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,8 +984,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1001,12 +1064,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,7 +1353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1336,32 +1393,521 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1453,504 +1999,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1969,6 +2017,33 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1996,97 +2071,58 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2405,105 +2441,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40AE6121-FE2A-46C5-B45A-E1356D95E7BB}">
   <dimension ref="A1:Z187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I95" sqref="I95:N101"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81:H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="185"/>
+      <c r="C1" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="33" t="s">
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="189"/>
+      <c r="I1" s="196" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="42" t="s">
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="198"/>
+      <c r="O1" s="205" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="51" t="s">
+      <c r="P1" s="206"/>
+      <c r="Q1" s="206"/>
+      <c r="R1" s="206"/>
+      <c r="S1" s="206"/>
+      <c r="T1" s="207"/>
+      <c r="U1" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="35"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="198"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="38"/>
+      <c r="A2" s="185"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="200"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="201"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="209"/>
+      <c r="Q2" s="209"/>
+      <c r="R2" s="209"/>
+      <c r="S2" s="209"/>
+      <c r="T2" s="210"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="201"/>
     </row>
     <row r="3" spans="1:26" ht="17.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="41"/>
+      <c r="A3" s="186"/>
+      <c r="B3" s="186"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
+      <c r="F3" s="194"/>
+      <c r="G3" s="194"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="202"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="203"/>
+      <c r="L3" s="203"/>
+      <c r="M3" s="203"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="212"/>
+      <c r="Q3" s="212"/>
+      <c r="R3" s="212"/>
+      <c r="S3" s="212"/>
+      <c r="T3" s="213"/>
+      <c r="U3" s="203"/>
+      <c r="V3" s="203"/>
+      <c r="W3" s="203"/>
+      <c r="X3" s="203"/>
+      <c r="Y3" s="203"/>
+      <c r="Z3" s="204"/>
     </row>
     <row r="4" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1">
@@ -2512,14 +2548,14 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="61" t="s">
+      <c r="U4" s="173" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="62"/>
-      <c r="W4" s="62"/>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="63"/>
+      <c r="V4" s="174"/>
+      <c r="W4" s="174"/>
+      <c r="X4" s="174"/>
+      <c r="Y4" s="174"/>
+      <c r="Z4" s="175"/>
     </row>
     <row r="5" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
@@ -2528,32 +2564,32 @@
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="164" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="54"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="165"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
+      <c r="K5" s="165"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="165"/>
+      <c r="O5" s="165"/>
+      <c r="P5" s="165"/>
+      <c r="Q5" s="165"/>
+      <c r="R5" s="165"/>
+      <c r="S5" s="165"/>
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="166"/>
     </row>
     <row r="6" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
@@ -2562,30 +2598,30 @@
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="57"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="168"/>
+      <c r="R6" s="168"/>
+      <c r="S6" s="168"/>
+      <c r="T6" s="168"/>
+      <c r="U6" s="168"/>
+      <c r="V6" s="168"/>
+      <c r="W6" s="168"/>
+      <c r="X6" s="168"/>
+      <c r="Y6" s="168"/>
+      <c r="Z6" s="169"/>
     </row>
     <row r="7" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="1">
@@ -2594,30 +2630,30 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="59"/>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="60"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="171"/>
+      <c r="E7" s="171"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="171"/>
+      <c r="K7" s="171"/>
+      <c r="L7" s="171"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="171"/>
+      <c r="O7" s="171"/>
+      <c r="P7" s="171"/>
+      <c r="Q7" s="171"/>
+      <c r="R7" s="171"/>
+      <c r="S7" s="171"/>
+      <c r="T7" s="171"/>
+      <c r="U7" s="171"/>
+      <c r="V7" s="171"/>
+      <c r="W7" s="171"/>
+      <c r="X7" s="171"/>
+      <c r="Y7" s="171"/>
+      <c r="Z7" s="172"/>
     </row>
     <row r="8" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
@@ -2634,26 +2670,26 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
-      <c r="T8" s="75"/>
-      <c r="U8" s="64" t="s">
+      <c r="I8" s="61"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="66"/>
+      <c r="V8" s="177"/>
+      <c r="W8" s="177"/>
+      <c r="X8" s="177"/>
+      <c r="Y8" s="177"/>
+      <c r="Z8" s="178"/>
     </row>
     <row r="9" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
@@ -2668,24 +2704,24 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="68"/>
-      <c r="W9" s="68"/>
-      <c r="X9" s="68"/>
-      <c r="Y9" s="68"/>
-      <c r="Z9" s="69"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="179"/>
+      <c r="V9" s="180"/>
+      <c r="W9" s="180"/>
+      <c r="X9" s="180"/>
+      <c r="Y9" s="180"/>
+      <c r="Z9" s="181"/>
     </row>
     <row r="10" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="1">
@@ -2700,24 +2736,24 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="12"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="81"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="72"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="182"/>
+      <c r="V10" s="183"/>
+      <c r="W10" s="183"/>
+      <c r="X10" s="183"/>
+      <c r="Y10" s="183"/>
+      <c r="Z10" s="184"/>
     </row>
     <row r="11" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
@@ -2726,34 +2762,34 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="145" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="92"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="100" t="s">
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="154" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="102"/>
-      <c r="U11" s="91"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="93"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="57"/>
     </row>
     <row r="12" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
@@ -2762,30 +2798,30 @@
       <c r="B12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="96"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="105"/>
-      <c r="U12" s="94"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="96"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="59"/>
+      <c r="W12" s="59"/>
+      <c r="X12" s="59"/>
+      <c r="Y12" s="59"/>
+      <c r="Z12" s="60"/>
     </row>
     <row r="13" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
@@ -2794,30 +2830,30 @@
       <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="103"/>
-      <c r="P13" s="104"/>
-      <c r="Q13" s="104"/>
-      <c r="R13" s="104"/>
-      <c r="S13" s="104"/>
-      <c r="T13" s="105"/>
-      <c r="U13" s="94"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="96"/>
+      <c r="C13" s="148"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="60"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="60"/>
     </row>
     <row r="14" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
@@ -2826,30 +2862,30 @@
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="105"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="96"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="150"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="59"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="59"/>
+      <c r="Z14" s="60"/>
     </row>
     <row r="15" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
@@ -2858,30 +2894,30 @@
       <c r="B15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="96"/>
-      <c r="O15" s="103"/>
-      <c r="P15" s="104"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="104"/>
-      <c r="S15" s="104"/>
-      <c r="T15" s="105"/>
-      <c r="U15" s="94"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="96"/>
+      <c r="C15" s="148"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="60"/>
     </row>
     <row r="16" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
@@ -2890,30 +2926,30 @@
       <c r="B16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="85"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="103"/>
-      <c r="P16" s="104"/>
-      <c r="Q16" s="104"/>
-      <c r="R16" s="104"/>
-      <c r="S16" s="104"/>
-      <c r="T16" s="105"/>
-      <c r="U16" s="94"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="96"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="59"/>
+      <c r="W16" s="59"/>
+      <c r="X16" s="59"/>
+      <c r="Y16" s="59"/>
+      <c r="Z16" s="60"/>
     </row>
     <row r="17" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="1">
@@ -2922,30 +2958,30 @@
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="99"/>
-      <c r="O17" s="106"/>
-      <c r="P17" s="107"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="108"/>
-      <c r="U17" s="97"/>
-      <c r="V17" s="98"/>
-      <c r="W17" s="98"/>
-      <c r="X17" s="98"/>
-      <c r="Y17" s="98"/>
-      <c r="Z17" s="99"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="90"/>
     </row>
     <row r="18" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
@@ -2954,34 +2990,34 @@
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="93"/>
-      <c r="O18" s="118" t="s">
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="P18" s="119"/>
-      <c r="Q18" s="119"/>
-      <c r="R18" s="119"/>
-      <c r="S18" s="119"/>
-      <c r="T18" s="120"/>
-      <c r="U18" s="91"/>
-      <c r="V18" s="92"/>
-      <c r="W18" s="92"/>
-      <c r="X18" s="92"/>
-      <c r="Y18" s="92"/>
-      <c r="Z18" s="93"/>
+      <c r="P18" s="128"/>
+      <c r="Q18" s="128"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="129"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="57"/>
     </row>
     <row r="19" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
@@ -2990,30 +3026,30 @@
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="96"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="122"/>
-      <c r="Q19" s="122"/>
-      <c r="R19" s="122"/>
-      <c r="S19" s="122"/>
-      <c r="T19" s="123"/>
-      <c r="U19" s="94"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="96"/>
+      <c r="C19" s="158"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="130"/>
+      <c r="P19" s="131"/>
+      <c r="Q19" s="131"/>
+      <c r="R19" s="131"/>
+      <c r="S19" s="131"/>
+      <c r="T19" s="132"/>
+      <c r="U19" s="58"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="60"/>
     </row>
     <row r="20" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
@@ -3022,30 +3058,30 @@
       <c r="B20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="112"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="96"/>
-      <c r="O20" s="121"/>
-      <c r="P20" s="122"/>
-      <c r="Q20" s="122"/>
-      <c r="R20" s="122"/>
-      <c r="S20" s="122"/>
-      <c r="T20" s="123"/>
-      <c r="U20" s="94"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="96"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="159"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="130"/>
+      <c r="P20" s="131"/>
+      <c r="Q20" s="131"/>
+      <c r="R20" s="131"/>
+      <c r="S20" s="131"/>
+      <c r="T20" s="132"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="60"/>
     </row>
     <row r="21" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
@@ -3054,30 +3090,30 @@
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="112"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="122"/>
-      <c r="Q21" s="122"/>
-      <c r="R21" s="122"/>
-      <c r="S21" s="122"/>
-      <c r="T21" s="123"/>
-      <c r="U21" s="94"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="96"/>
+      <c r="C21" s="158"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="130"/>
+      <c r="P21" s="131"/>
+      <c r="Q21" s="131"/>
+      <c r="R21" s="131"/>
+      <c r="S21" s="131"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="60"/>
     </row>
     <row r="22" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
@@ -3086,30 +3122,30 @@
       <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="112"/>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="121"/>
-      <c r="P22" s="122"/>
-      <c r="Q22" s="122"/>
-      <c r="R22" s="122"/>
-      <c r="S22" s="122"/>
-      <c r="T22" s="123"/>
-      <c r="U22" s="94"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="96"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="160"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="130"/>
+      <c r="P22" s="131"/>
+      <c r="Q22" s="131"/>
+      <c r="R22" s="131"/>
+      <c r="S22" s="131"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="58"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="60"/>
     </row>
     <row r="23" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
@@ -3118,30 +3154,30 @@
       <c r="B23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="112"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="122"/>
-      <c r="Q23" s="122"/>
-      <c r="R23" s="122"/>
-      <c r="S23" s="122"/>
-      <c r="T23" s="123"/>
-      <c r="U23" s="94"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="96"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="60"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="131"/>
+      <c r="Q23" s="131"/>
+      <c r="R23" s="131"/>
+      <c r="S23" s="131"/>
+      <c r="T23" s="132"/>
+      <c r="U23" s="58"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="60"/>
     </row>
     <row r="24" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="1">
@@ -3150,30 +3186,30 @@
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="124"/>
-      <c r="P24" s="125"/>
-      <c r="Q24" s="125"/>
-      <c r="R24" s="125"/>
-      <c r="S24" s="125"/>
-      <c r="T24" s="126"/>
-      <c r="U24" s="97"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="99"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="162"/>
+      <c r="H24" s="163"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="89"/>
+      <c r="M24" s="89"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="133"/>
+      <c r="P24" s="134"/>
+      <c r="Q24" s="134"/>
+      <c r="R24" s="134"/>
+      <c r="S24" s="134"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="88"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="90"/>
     </row>
     <row r="25" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
@@ -3182,34 +3218,34 @@
       <c r="B25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="118" t="s">
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="P25" s="119"/>
-      <c r="Q25" s="119"/>
-      <c r="R25" s="119"/>
-      <c r="S25" s="119"/>
-      <c r="T25" s="120"/>
-      <c r="U25" s="91"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="93"/>
+      <c r="P25" s="128"/>
+      <c r="Q25" s="128"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="129"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="57"/>
     </row>
     <row r="26" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
@@ -3218,30 +3254,30 @@
       <c r="B26" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="130"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="94"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="121"/>
-      <c r="P26" s="122"/>
-      <c r="Q26" s="122"/>
-      <c r="R26" s="122"/>
-      <c r="S26" s="122"/>
-      <c r="T26" s="123"/>
-      <c r="U26" s="94"/>
-      <c r="V26" s="95"/>
-      <c r="W26" s="95"/>
-      <c r="X26" s="95"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="96"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="130"/>
+      <c r="P26" s="131"/>
+      <c r="Q26" s="131"/>
+      <c r="R26" s="131"/>
+      <c r="S26" s="131"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="60"/>
     </row>
     <row r="27" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
@@ -3250,30 +3286,30 @@
       <c r="B27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="130"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="95"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="121"/>
-      <c r="P27" s="122"/>
-      <c r="Q27" s="122"/>
-      <c r="R27" s="122"/>
-      <c r="S27" s="122"/>
-      <c r="T27" s="123"/>
-      <c r="U27" s="94"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="95"/>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="96"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="130"/>
+      <c r="P27" s="131"/>
+      <c r="Q27" s="131"/>
+      <c r="R27" s="131"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="132"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="60"/>
     </row>
     <row r="28" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
@@ -3282,30 +3318,30 @@
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="130"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="121"/>
-      <c r="P28" s="122"/>
-      <c r="Q28" s="122"/>
-      <c r="R28" s="122"/>
-      <c r="S28" s="122"/>
-      <c r="T28" s="123"/>
-      <c r="U28" s="94"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="95"/>
-      <c r="X28" s="95"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="96"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="130"/>
+      <c r="P28" s="131"/>
+      <c r="Q28" s="131"/>
+      <c r="R28" s="131"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="132"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="60"/>
     </row>
     <row r="29" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
@@ -3314,30 +3350,30 @@
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="130"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="131"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="122"/>
-      <c r="Q29" s="122"/>
-      <c r="R29" s="122"/>
-      <c r="S29" s="122"/>
-      <c r="T29" s="123"/>
-      <c r="U29" s="94"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="96"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="131"/>
+      <c r="Q29" s="131"/>
+      <c r="R29" s="131"/>
+      <c r="S29" s="131"/>
+      <c r="T29" s="132"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="60"/>
     </row>
     <row r="30" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
@@ -3346,30 +3382,30 @@
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="130"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="121"/>
-      <c r="P30" s="122"/>
-      <c r="Q30" s="122"/>
-      <c r="R30" s="122"/>
-      <c r="S30" s="122"/>
-      <c r="T30" s="123"/>
-      <c r="U30" s="94"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="96"/>
+      <c r="C30" s="121"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="130"/>
+      <c r="P30" s="131"/>
+      <c r="Q30" s="131"/>
+      <c r="R30" s="131"/>
+      <c r="S30" s="131"/>
+      <c r="T30" s="132"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="60"/>
     </row>
     <row r="31" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A31" s="1">
@@ -3378,30 +3414,30 @@
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="133"/>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="124"/>
-      <c r="P31" s="125"/>
-      <c r="Q31" s="125"/>
-      <c r="R31" s="125"/>
-      <c r="S31" s="125"/>
-      <c r="T31" s="126"/>
-      <c r="U31" s="97"/>
-      <c r="V31" s="98"/>
-      <c r="W31" s="98"/>
-      <c r="X31" s="98"/>
-      <c r="Y31" s="98"/>
-      <c r="Z31" s="99"/>
+      <c r="C31" s="124"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="133"/>
+      <c r="P31" s="134"/>
+      <c r="Q31" s="134"/>
+      <c r="R31" s="134"/>
+      <c r="S31" s="134"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="88"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="90"/>
     </row>
     <row r="32" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
@@ -3418,24 +3454,24 @@
       <c r="F32" s="137"/>
       <c r="G32" s="137"/>
       <c r="H32" s="138"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="145"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="146"/>
-      <c r="S32" s="146"/>
-      <c r="T32" s="147"/>
-      <c r="U32" s="91"/>
-      <c r="V32" s="92"/>
-      <c r="W32" s="92"/>
-      <c r="X32" s="92"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="93"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="80"/>
+      <c r="R32" s="80"/>
+      <c r="S32" s="80"/>
+      <c r="T32" s="81"/>
+      <c r="U32" s="55"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="57"/>
     </row>
     <row r="33" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
@@ -3450,24 +3486,24 @@
       <c r="F33" s="140"/>
       <c r="G33" s="140"/>
       <c r="H33" s="141"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="148"/>
-      <c r="P33" s="149"/>
-      <c r="Q33" s="149"/>
-      <c r="R33" s="149"/>
-      <c r="S33" s="149"/>
-      <c r="T33" s="150"/>
-      <c r="U33" s="94"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="96"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="83"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="83"/>
+      <c r="T33" s="84"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="60"/>
     </row>
     <row r="34" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
@@ -3482,24 +3518,24 @@
       <c r="F34" s="140"/>
       <c r="G34" s="140"/>
       <c r="H34" s="141"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="148"/>
-      <c r="P34" s="149"/>
-      <c r="Q34" s="149"/>
-      <c r="R34" s="149"/>
-      <c r="S34" s="149"/>
-      <c r="T34" s="150"/>
-      <c r="U34" s="94"/>
-      <c r="V34" s="95"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="96"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="83"/>
+      <c r="Q34" s="83"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="83"/>
+      <c r="T34" s="84"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="60"/>
     </row>
     <row r="35" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
@@ -3514,24 +3550,24 @@
       <c r="F35" s="140"/>
       <c r="G35" s="140"/>
       <c r="H35" s="141"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="148"/>
-      <c r="P35" s="149"/>
-      <c r="Q35" s="149"/>
-      <c r="R35" s="149"/>
-      <c r="S35" s="149"/>
-      <c r="T35" s="150"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="95"/>
-      <c r="W35" s="95"/>
-      <c r="X35" s="95"/>
-      <c r="Y35" s="95"/>
-      <c r="Z35" s="96"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="82"/>
+      <c r="P35" s="83"/>
+      <c r="Q35" s="83"/>
+      <c r="R35" s="83"/>
+      <c r="S35" s="83"/>
+      <c r="T35" s="84"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="60"/>
     </row>
     <row r="36" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
@@ -3546,24 +3582,24 @@
       <c r="F36" s="140"/>
       <c r="G36" s="140"/>
       <c r="H36" s="141"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="148"/>
-      <c r="P36" s="149"/>
-      <c r="Q36" s="149"/>
-      <c r="R36" s="149"/>
-      <c r="S36" s="149"/>
-      <c r="T36" s="150"/>
-      <c r="U36" s="94"/>
-      <c r="V36" s="95"/>
-      <c r="W36" s="95"/>
-      <c r="X36" s="95"/>
-      <c r="Y36" s="95"/>
-      <c r="Z36" s="96"/>
+      <c r="I36" s="58"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="83"/>
+      <c r="Q36" s="83"/>
+      <c r="R36" s="83"/>
+      <c r="S36" s="83"/>
+      <c r="T36" s="84"/>
+      <c r="U36" s="58"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="60"/>
     </row>
     <row r="37" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
@@ -3578,24 +3614,24 @@
       <c r="F37" s="140"/>
       <c r="G37" s="140"/>
       <c r="H37" s="141"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="95"/>
-      <c r="L37" s="95"/>
-      <c r="M37" s="95"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="148"/>
-      <c r="P37" s="149"/>
-      <c r="Q37" s="149"/>
-      <c r="R37" s="149"/>
-      <c r="S37" s="149"/>
-      <c r="T37" s="150"/>
-      <c r="U37" s="94"/>
-      <c r="V37" s="95"/>
-      <c r="W37" s="95"/>
-      <c r="X37" s="95"/>
-      <c r="Y37" s="95"/>
-      <c r="Z37" s="96"/>
+      <c r="I37" s="58"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="82"/>
+      <c r="P37" s="83"/>
+      <c r="Q37" s="83"/>
+      <c r="R37" s="83"/>
+      <c r="S37" s="83"/>
+      <c r="T37" s="84"/>
+      <c r="U37" s="58"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="60"/>
     </row>
     <row r="38" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A38" s="1">
@@ -3610,24 +3646,24 @@
       <c r="F38" s="143"/>
       <c r="G38" s="143"/>
       <c r="H38" s="144"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="98"/>
-      <c r="L38" s="98"/>
-      <c r="M38" s="98"/>
-      <c r="N38" s="99"/>
-      <c r="O38" s="151"/>
-      <c r="P38" s="152"/>
-      <c r="Q38" s="152"/>
-      <c r="R38" s="152"/>
-      <c r="S38" s="152"/>
-      <c r="T38" s="153"/>
-      <c r="U38" s="97"/>
-      <c r="V38" s="98"/>
-      <c r="W38" s="98"/>
-      <c r="X38" s="98"/>
-      <c r="Y38" s="98"/>
-      <c r="Z38" s="99"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="85"/>
+      <c r="P38" s="86"/>
+      <c r="Q38" s="86"/>
+      <c r="R38" s="86"/>
+      <c r="S38" s="86"/>
+      <c r="T38" s="87"/>
+      <c r="U38" s="88"/>
+      <c r="V38" s="89"/>
+      <c r="W38" s="89"/>
+      <c r="X38" s="89"/>
+      <c r="Y38" s="89"/>
+      <c r="Z38" s="90"/>
     </row>
     <row r="39" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
@@ -3636,34 +3672,34 @@
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C39" s="145" t="s">
+      <c r="C39" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="146"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="154" t="s">
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="P39" s="155"/>
-      <c r="Q39" s="155"/>
-      <c r="R39" s="155"/>
-      <c r="S39" s="155"/>
-      <c r="T39" s="156"/>
-      <c r="U39" s="91"/>
-      <c r="V39" s="92"/>
-      <c r="W39" s="92"/>
-      <c r="X39" s="92"/>
-      <c r="Y39" s="92"/>
-      <c r="Z39" s="93"/>
+      <c r="P39" s="92"/>
+      <c r="Q39" s="92"/>
+      <c r="R39" s="92"/>
+      <c r="S39" s="92"/>
+      <c r="T39" s="93"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="56"/>
+      <c r="W39" s="56"/>
+      <c r="X39" s="56"/>
+      <c r="Y39" s="56"/>
+      <c r="Z39" s="57"/>
     </row>
     <row r="40" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
@@ -3672,30 +3708,30 @@
       <c r="B40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="148"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="95"/>
-      <c r="K40" s="95"/>
-      <c r="L40" s="95"/>
-      <c r="M40" s="95"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="157"/>
-      <c r="P40" s="158"/>
-      <c r="Q40" s="158"/>
-      <c r="R40" s="158"/>
-      <c r="S40" s="158"/>
-      <c r="T40" s="159"/>
-      <c r="U40" s="94"/>
-      <c r="V40" s="95"/>
-      <c r="W40" s="95"/>
-      <c r="X40" s="95"/>
-      <c r="Y40" s="95"/>
-      <c r="Z40" s="96"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="83"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="58"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="95"/>
+      <c r="R40" s="95"/>
+      <c r="S40" s="95"/>
+      <c r="T40" s="96"/>
+      <c r="U40" s="58"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="60"/>
     </row>
     <row r="41" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
@@ -3704,30 +3740,30 @@
       <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="148"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="94"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="95"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="157"/>
-      <c r="P41" s="158"/>
-      <c r="Q41" s="158"/>
-      <c r="R41" s="158"/>
-      <c r="S41" s="158"/>
-      <c r="T41" s="159"/>
-      <c r="U41" s="94"/>
-      <c r="V41" s="95"/>
-      <c r="W41" s="95"/>
-      <c r="X41" s="95"/>
-      <c r="Y41" s="95"/>
-      <c r="Z41" s="96"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="94"/>
+      <c r="P41" s="95"/>
+      <c r="Q41" s="95"/>
+      <c r="R41" s="95"/>
+      <c r="S41" s="95"/>
+      <c r="T41" s="96"/>
+      <c r="U41" s="58"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="59"/>
+      <c r="Y41" s="59"/>
+      <c r="Z41" s="60"/>
     </row>
     <row r="42" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
@@ -3736,30 +3772,30 @@
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="148"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="157"/>
-      <c r="P42" s="158"/>
-      <c r="Q42" s="158"/>
-      <c r="R42" s="158"/>
-      <c r="S42" s="158"/>
-      <c r="T42" s="159"/>
-      <c r="U42" s="94"/>
-      <c r="V42" s="95"/>
-      <c r="W42" s="95"/>
-      <c r="X42" s="95"/>
-      <c r="Y42" s="95"/>
-      <c r="Z42" s="96"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="84"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="95"/>
+      <c r="Q42" s="95"/>
+      <c r="R42" s="95"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="96"/>
+      <c r="U42" s="58"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="59"/>
+      <c r="Z42" s="60"/>
     </row>
     <row r="43" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
@@ -3768,30 +3804,30 @@
       <c r="B43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="148"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="95"/>
-      <c r="L43" s="95"/>
-      <c r="M43" s="95"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="157"/>
-      <c r="P43" s="158"/>
-      <c r="Q43" s="158"/>
-      <c r="R43" s="158"/>
-      <c r="S43" s="158"/>
-      <c r="T43" s="159"/>
-      <c r="U43" s="94"/>
-      <c r="V43" s="95"/>
-      <c r="W43" s="95"/>
-      <c r="X43" s="95"/>
-      <c r="Y43" s="95"/>
-      <c r="Z43" s="96"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="83"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="94"/>
+      <c r="P43" s="95"/>
+      <c r="Q43" s="95"/>
+      <c r="R43" s="95"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="96"/>
+      <c r="U43" s="58"/>
+      <c r="V43" s="59"/>
+      <c r="W43" s="59"/>
+      <c r="X43" s="59"/>
+      <c r="Y43" s="59"/>
+      <c r="Z43" s="60"/>
     </row>
     <row r="44" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
@@ -3800,30 +3836,30 @@
       <c r="B44" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="148"/>
-      <c r="D44" s="149"/>
-      <c r="E44" s="149"/>
-      <c r="F44" s="149"/>
-      <c r="G44" s="149"/>
-      <c r="H44" s="150"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="157"/>
-      <c r="P44" s="158"/>
-      <c r="Q44" s="158"/>
-      <c r="R44" s="158"/>
-      <c r="S44" s="158"/>
-      <c r="T44" s="159"/>
-      <c r="U44" s="94"/>
-      <c r="V44" s="95"/>
-      <c r="W44" s="95"/>
-      <c r="X44" s="95"/>
-      <c r="Y44" s="95"/>
-      <c r="Z44" s="96"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="84"/>
+      <c r="I44" s="58"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="94"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="95"/>
+      <c r="R44" s="95"/>
+      <c r="S44" s="95"/>
+      <c r="T44" s="96"/>
+      <c r="U44" s="58"/>
+      <c r="V44" s="59"/>
+      <c r="W44" s="59"/>
+      <c r="X44" s="59"/>
+      <c r="Y44" s="59"/>
+      <c r="Z44" s="60"/>
     </row>
     <row r="45" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="1">
@@ -3832,30 +3868,30 @@
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="151"/>
-      <c r="D45" s="152"/>
-      <c r="E45" s="152"/>
-      <c r="F45" s="152"/>
-      <c r="G45" s="152"/>
-      <c r="H45" s="153"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="98"/>
-      <c r="K45" s="98"/>
-      <c r="L45" s="98"/>
-      <c r="M45" s="98"/>
-      <c r="N45" s="99"/>
-      <c r="O45" s="160"/>
-      <c r="P45" s="161"/>
-      <c r="Q45" s="161"/>
-      <c r="R45" s="161"/>
-      <c r="S45" s="161"/>
-      <c r="T45" s="162"/>
-      <c r="U45" s="97"/>
-      <c r="V45" s="98"/>
-      <c r="W45" s="98"/>
-      <c r="X45" s="98"/>
-      <c r="Y45" s="98"/>
-      <c r="Z45" s="99"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="86"/>
+      <c r="E45" s="86"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="89"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="90"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="98"/>
+      <c r="Q45" s="98"/>
+      <c r="R45" s="98"/>
+      <c r="S45" s="98"/>
+      <c r="T45" s="99"/>
+      <c r="U45" s="88"/>
+      <c r="V45" s="89"/>
+      <c r="W45" s="89"/>
+      <c r="X45" s="89"/>
+      <c r="Y45" s="89"/>
+      <c r="Z45" s="90"/>
     </row>
     <row r="46" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
@@ -3864,34 +3900,34 @@
       <c r="B46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="163" t="s">
+      <c r="C46" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="D46" s="164"/>
-      <c r="E46" s="164"/>
-      <c r="F46" s="164"/>
-      <c r="G46" s="164"/>
-      <c r="H46" s="165"/>
-      <c r="I46" s="172"/>
-      <c r="J46" s="173"/>
-      <c r="K46" s="173"/>
-      <c r="L46" s="173"/>
-      <c r="M46" s="173"/>
-      <c r="N46" s="174"/>
-      <c r="O46" s="154" t="s">
+      <c r="D46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="110"/>
+      <c r="M46" s="110"/>
+      <c r="N46" s="111"/>
+      <c r="O46" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="P46" s="155"/>
-      <c r="Q46" s="155"/>
-      <c r="R46" s="155"/>
-      <c r="S46" s="155"/>
-      <c r="T46" s="156"/>
-      <c r="U46" s="91"/>
-      <c r="V46" s="92"/>
-      <c r="W46" s="92"/>
-      <c r="X46" s="92"/>
-      <c r="Y46" s="92"/>
-      <c r="Z46" s="93"/>
+      <c r="P46" s="92"/>
+      <c r="Q46" s="92"/>
+      <c r="R46" s="92"/>
+      <c r="S46" s="92"/>
+      <c r="T46" s="93"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="56"/>
+      <c r="Z46" s="57"/>
     </row>
     <row r="47" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
@@ -3900,30 +3936,30 @@
       <c r="B47" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="166"/>
-      <c r="D47" s="167"/>
-      <c r="E47" s="167"/>
-      <c r="F47" s="167"/>
-      <c r="G47" s="167"/>
-      <c r="H47" s="168"/>
-      <c r="I47" s="175"/>
-      <c r="J47" s="176"/>
-      <c r="K47" s="176"/>
-      <c r="L47" s="176"/>
-      <c r="M47" s="176"/>
-      <c r="N47" s="177"/>
-      <c r="O47" s="157"/>
-      <c r="P47" s="158"/>
-      <c r="Q47" s="158"/>
-      <c r="R47" s="158"/>
-      <c r="S47" s="158"/>
-      <c r="T47" s="159"/>
-      <c r="U47" s="94"/>
-      <c r="V47" s="95"/>
-      <c r="W47" s="95"/>
-      <c r="X47" s="95"/>
-      <c r="Y47" s="95"/>
-      <c r="Z47" s="96"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="112"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="113"/>
+      <c r="L47" s="113"/>
+      <c r="M47" s="113"/>
+      <c r="N47" s="114"/>
+      <c r="O47" s="94"/>
+      <c r="P47" s="95"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="95"/>
+      <c r="S47" s="95"/>
+      <c r="T47" s="96"/>
+      <c r="U47" s="58"/>
+      <c r="V47" s="59"/>
+      <c r="W47" s="59"/>
+      <c r="X47" s="59"/>
+      <c r="Y47" s="59"/>
+      <c r="Z47" s="60"/>
     </row>
     <row r="48" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
@@ -3932,30 +3968,30 @@
       <c r="B48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="166"/>
-      <c r="D48" s="167"/>
-      <c r="E48" s="167"/>
-      <c r="F48" s="167"/>
-      <c r="G48" s="167"/>
-      <c r="H48" s="168"/>
-      <c r="I48" s="175"/>
-      <c r="J48" s="176"/>
-      <c r="K48" s="176"/>
-      <c r="L48" s="176"/>
-      <c r="M48" s="176"/>
-      <c r="N48" s="177"/>
-      <c r="O48" s="157"/>
-      <c r="P48" s="158"/>
-      <c r="Q48" s="158"/>
-      <c r="R48" s="158"/>
-      <c r="S48" s="158"/>
-      <c r="T48" s="159"/>
-      <c r="U48" s="94"/>
-      <c r="V48" s="95"/>
-      <c r="W48" s="95"/>
-      <c r="X48" s="95"/>
-      <c r="Y48" s="95"/>
-      <c r="Z48" s="96"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="112"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="113"/>
+      <c r="L48" s="113"/>
+      <c r="M48" s="113"/>
+      <c r="N48" s="114"/>
+      <c r="O48" s="94"/>
+      <c r="P48" s="95"/>
+      <c r="Q48" s="95"/>
+      <c r="R48" s="95"/>
+      <c r="S48" s="95"/>
+      <c r="T48" s="96"/>
+      <c r="U48" s="58"/>
+      <c r="V48" s="59"/>
+      <c r="W48" s="59"/>
+      <c r="X48" s="59"/>
+      <c r="Y48" s="59"/>
+      <c r="Z48" s="60"/>
     </row>
     <row r="49" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
@@ -3964,30 +4000,30 @@
       <c r="B49" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="166"/>
-      <c r="D49" s="167"/>
-      <c r="E49" s="167"/>
-      <c r="F49" s="167"/>
-      <c r="G49" s="167"/>
-      <c r="H49" s="168"/>
-      <c r="I49" s="175"/>
-      <c r="J49" s="176"/>
-      <c r="K49" s="176"/>
-      <c r="L49" s="176"/>
-      <c r="M49" s="176"/>
-      <c r="N49" s="177"/>
-      <c r="O49" s="157"/>
-      <c r="P49" s="158"/>
-      <c r="Q49" s="158"/>
-      <c r="R49" s="158"/>
-      <c r="S49" s="158"/>
-      <c r="T49" s="159"/>
-      <c r="U49" s="94"/>
-      <c r="V49" s="95"/>
-      <c r="W49" s="95"/>
-      <c r="X49" s="95"/>
-      <c r="Y49" s="95"/>
-      <c r="Z49" s="96"/>
+      <c r="C49" s="103"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="112"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="113"/>
+      <c r="L49" s="113"/>
+      <c r="M49" s="113"/>
+      <c r="N49" s="114"/>
+      <c r="O49" s="94"/>
+      <c r="P49" s="95"/>
+      <c r="Q49" s="95"/>
+      <c r="R49" s="95"/>
+      <c r="S49" s="95"/>
+      <c r="T49" s="96"/>
+      <c r="U49" s="58"/>
+      <c r="V49" s="59"/>
+      <c r="W49" s="59"/>
+      <c r="X49" s="59"/>
+      <c r="Y49" s="59"/>
+      <c r="Z49" s="60"/>
     </row>
     <row r="50" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
@@ -3996,30 +4032,30 @@
       <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="166"/>
-      <c r="D50" s="167"/>
-      <c r="E50" s="167"/>
-      <c r="F50" s="167"/>
-      <c r="G50" s="167"/>
-      <c r="H50" s="168"/>
-      <c r="I50" s="175"/>
-      <c r="J50" s="176"/>
-      <c r="K50" s="176"/>
-      <c r="L50" s="176"/>
-      <c r="M50" s="176"/>
-      <c r="N50" s="177"/>
-      <c r="O50" s="157"/>
-      <c r="P50" s="158"/>
-      <c r="Q50" s="158"/>
-      <c r="R50" s="158"/>
-      <c r="S50" s="158"/>
-      <c r="T50" s="159"/>
-      <c r="U50" s="94"/>
-      <c r="V50" s="95"/>
-      <c r="W50" s="95"/>
-      <c r="X50" s="95"/>
-      <c r="Y50" s="95"/>
-      <c r="Z50" s="96"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="112"/>
+      <c r="J50" s="113"/>
+      <c r="K50" s="113"/>
+      <c r="L50" s="113"/>
+      <c r="M50" s="113"/>
+      <c r="N50" s="114"/>
+      <c r="O50" s="94"/>
+      <c r="P50" s="95"/>
+      <c r="Q50" s="95"/>
+      <c r="R50" s="95"/>
+      <c r="S50" s="95"/>
+      <c r="T50" s="96"/>
+      <c r="U50" s="58"/>
+      <c r="V50" s="59"/>
+      <c r="W50" s="59"/>
+      <c r="X50" s="59"/>
+      <c r="Y50" s="59"/>
+      <c r="Z50" s="60"/>
     </row>
     <row r="51" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
@@ -4028,30 +4064,30 @@
       <c r="B51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="166"/>
-      <c r="D51" s="167"/>
-      <c r="E51" s="167"/>
-      <c r="F51" s="167"/>
-      <c r="G51" s="167"/>
-      <c r="H51" s="168"/>
-      <c r="I51" s="175"/>
-      <c r="J51" s="176"/>
-      <c r="K51" s="176"/>
-      <c r="L51" s="176"/>
-      <c r="M51" s="176"/>
-      <c r="N51" s="177"/>
-      <c r="O51" s="157"/>
-      <c r="P51" s="158"/>
-      <c r="Q51" s="158"/>
-      <c r="R51" s="158"/>
-      <c r="S51" s="158"/>
-      <c r="T51" s="159"/>
-      <c r="U51" s="94"/>
-      <c r="V51" s="95"/>
-      <c r="W51" s="95"/>
-      <c r="X51" s="95"/>
-      <c r="Y51" s="95"/>
-      <c r="Z51" s="96"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="112"/>
+      <c r="J51" s="113"/>
+      <c r="K51" s="113"/>
+      <c r="L51" s="113"/>
+      <c r="M51" s="113"/>
+      <c r="N51" s="114"/>
+      <c r="O51" s="94"/>
+      <c r="P51" s="95"/>
+      <c r="Q51" s="95"/>
+      <c r="R51" s="95"/>
+      <c r="S51" s="95"/>
+      <c r="T51" s="96"/>
+      <c r="U51" s="58"/>
+      <c r="V51" s="59"/>
+      <c r="W51" s="59"/>
+      <c r="X51" s="59"/>
+      <c r="Y51" s="59"/>
+      <c r="Z51" s="60"/>
     </row>
     <row r="52" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A52" s="1">
@@ -4060,30 +4096,30 @@
       <c r="B52" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="169"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="170"/>
-      <c r="F52" s="170"/>
-      <c r="G52" s="170"/>
-      <c r="H52" s="171"/>
-      <c r="I52" s="178"/>
-      <c r="J52" s="179"/>
-      <c r="K52" s="179"/>
-      <c r="L52" s="179"/>
-      <c r="M52" s="179"/>
-      <c r="N52" s="180"/>
-      <c r="O52" s="160"/>
-      <c r="P52" s="161"/>
-      <c r="Q52" s="161"/>
-      <c r="R52" s="161"/>
-      <c r="S52" s="161"/>
-      <c r="T52" s="162"/>
-      <c r="U52" s="97"/>
-      <c r="V52" s="98"/>
-      <c r="W52" s="98"/>
-      <c r="X52" s="98"/>
-      <c r="Y52" s="98"/>
-      <c r="Z52" s="99"/>
+      <c r="C52" s="106"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="115"/>
+      <c r="J52" s="116"/>
+      <c r="K52" s="116"/>
+      <c r="L52" s="116"/>
+      <c r="M52" s="116"/>
+      <c r="N52" s="117"/>
+      <c r="O52" s="97"/>
+      <c r="P52" s="98"/>
+      <c r="Q52" s="98"/>
+      <c r="R52" s="98"/>
+      <c r="S52" s="98"/>
+      <c r="T52" s="99"/>
+      <c r="U52" s="88"/>
+      <c r="V52" s="89"/>
+      <c r="W52" s="89"/>
+      <c r="X52" s="89"/>
+      <c r="Y52" s="89"/>
+      <c r="Z52" s="90"/>
     </row>
     <row r="53" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
@@ -4092,34 +4128,34 @@
       <c r="B53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="181" t="s">
+      <c r="C53" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="182"/>
-      <c r="E53" s="182"/>
-      <c r="F53" s="182"/>
-      <c r="G53" s="182"/>
-      <c r="H53" s="183"/>
-      <c r="I53" s="190"/>
-      <c r="J53" s="191"/>
-      <c r="K53" s="191"/>
-      <c r="L53" s="191"/>
-      <c r="M53" s="191"/>
-      <c r="N53" s="192"/>
-      <c r="O53" s="233" t="s">
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="P53" s="234"/>
-      <c r="Q53" s="234"/>
-      <c r="R53" s="234"/>
-      <c r="S53" s="234"/>
-      <c r="T53" s="235"/>
-      <c r="U53" s="190"/>
-      <c r="V53" s="191"/>
-      <c r="W53" s="191"/>
-      <c r="X53" s="191"/>
-      <c r="Y53" s="191"/>
-      <c r="Z53" s="192"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="71"/>
+      <c r="S53" s="71"/>
+      <c r="T53" s="72"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="29"/>
+      <c r="Y53" s="29"/>
+      <c r="Z53" s="30"/>
     </row>
     <row r="54" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
@@ -4128,30 +4164,30 @@
       <c r="B54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C54" s="184"/>
-      <c r="D54" s="185"/>
-      <c r="E54" s="185"/>
-      <c r="F54" s="185"/>
-      <c r="G54" s="185"/>
-      <c r="H54" s="186"/>
-      <c r="I54" s="193"/>
-      <c r="J54" s="194"/>
-      <c r="K54" s="194"/>
-      <c r="L54" s="194"/>
-      <c r="M54" s="194"/>
-      <c r="N54" s="195"/>
-      <c r="O54" s="236"/>
-      <c r="P54" s="237"/>
-      <c r="Q54" s="237"/>
-      <c r="R54" s="237"/>
-      <c r="S54" s="237"/>
-      <c r="T54" s="238"/>
-      <c r="U54" s="193"/>
-      <c r="V54" s="194"/>
-      <c r="W54" s="194"/>
-      <c r="X54" s="194"/>
-      <c r="Y54" s="194"/>
-      <c r="Z54" s="195"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
+      <c r="R54" s="74"/>
+      <c r="S54" s="74"/>
+      <c r="T54" s="75"/>
+      <c r="U54" s="31"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="32"/>
+      <c r="Y54" s="32"/>
+      <c r="Z54" s="33"/>
     </row>
     <row r="55" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
@@ -4160,30 +4196,30 @@
       <c r="B55" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="184"/>
-      <c r="D55" s="185"/>
-      <c r="E55" s="185"/>
-      <c r="F55" s="185"/>
-      <c r="G55" s="185"/>
-      <c r="H55" s="186"/>
-      <c r="I55" s="193"/>
-      <c r="J55" s="194"/>
-      <c r="K55" s="194"/>
-      <c r="L55" s="194"/>
-      <c r="M55" s="194"/>
-      <c r="N55" s="195"/>
-      <c r="O55" s="236"/>
-      <c r="P55" s="237"/>
-      <c r="Q55" s="237"/>
-      <c r="R55" s="237"/>
-      <c r="S55" s="237"/>
-      <c r="T55" s="238"/>
-      <c r="U55" s="193"/>
-      <c r="V55" s="194"/>
-      <c r="W55" s="194"/>
-      <c r="X55" s="194"/>
-      <c r="Y55" s="194"/>
-      <c r="Z55" s="195"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="74"/>
+      <c r="S55" s="74"/>
+      <c r="T55" s="75"/>
+      <c r="U55" s="31"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="32"/>
+      <c r="Z55" s="33"/>
     </row>
     <row r="56" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
@@ -4192,30 +4228,30 @@
       <c r="B56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="184"/>
-      <c r="D56" s="185"/>
-      <c r="E56" s="185"/>
-      <c r="F56" s="185"/>
-      <c r="G56" s="185"/>
-      <c r="H56" s="186"/>
-      <c r="I56" s="193"/>
-      <c r="J56" s="194"/>
-      <c r="K56" s="194"/>
-      <c r="L56" s="194"/>
-      <c r="M56" s="194"/>
-      <c r="N56" s="195"/>
-      <c r="O56" s="236"/>
-      <c r="P56" s="237"/>
-      <c r="Q56" s="237"/>
-      <c r="R56" s="237"/>
-      <c r="S56" s="237"/>
-      <c r="T56" s="238"/>
-      <c r="U56" s="193"/>
-      <c r="V56" s="194"/>
-      <c r="W56" s="194"/>
-      <c r="X56" s="194"/>
-      <c r="Y56" s="194"/>
-      <c r="Z56" s="195"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="74"/>
+      <c r="Q56" s="74"/>
+      <c r="R56" s="74"/>
+      <c r="S56" s="74"/>
+      <c r="T56" s="75"/>
+      <c r="U56" s="31"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="32"/>
+      <c r="Y56" s="32"/>
+      <c r="Z56" s="33"/>
     </row>
     <row r="57" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
@@ -4224,30 +4260,30 @@
       <c r="B57" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="184"/>
-      <c r="D57" s="185"/>
-      <c r="E57" s="185"/>
-      <c r="F57" s="185"/>
-      <c r="G57" s="185"/>
-      <c r="H57" s="186"/>
-      <c r="I57" s="193"/>
-      <c r="J57" s="194"/>
-      <c r="K57" s="194"/>
-      <c r="L57" s="194"/>
-      <c r="M57" s="194"/>
-      <c r="N57" s="195"/>
-      <c r="O57" s="236"/>
-      <c r="P57" s="237"/>
-      <c r="Q57" s="237"/>
-      <c r="R57" s="237"/>
-      <c r="S57" s="237"/>
-      <c r="T57" s="238"/>
-      <c r="U57" s="193"/>
-      <c r="V57" s="194"/>
-      <c r="W57" s="194"/>
-      <c r="X57" s="194"/>
-      <c r="Y57" s="194"/>
-      <c r="Z57" s="195"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="74"/>
+      <c r="Q57" s="74"/>
+      <c r="R57" s="74"/>
+      <c r="S57" s="74"/>
+      <c r="T57" s="75"/>
+      <c r="U57" s="31"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="32"/>
+      <c r="Y57" s="32"/>
+      <c r="Z57" s="33"/>
     </row>
     <row r="58" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
@@ -4256,30 +4292,30 @@
       <c r="B58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="184"/>
-      <c r="D58" s="185"/>
-      <c r="E58" s="185"/>
-      <c r="F58" s="185"/>
-      <c r="G58" s="185"/>
-      <c r="H58" s="186"/>
-      <c r="I58" s="193"/>
-      <c r="J58" s="194"/>
-      <c r="K58" s="194"/>
-      <c r="L58" s="194"/>
-      <c r="M58" s="194"/>
-      <c r="N58" s="195"/>
-      <c r="O58" s="236"/>
-      <c r="P58" s="237"/>
-      <c r="Q58" s="237"/>
-      <c r="R58" s="237"/>
-      <c r="S58" s="237"/>
-      <c r="T58" s="238"/>
-      <c r="U58" s="193"/>
-      <c r="V58" s="194"/>
-      <c r="W58" s="194"/>
-      <c r="X58" s="194"/>
-      <c r="Y58" s="194"/>
-      <c r="Z58" s="195"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="32"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="32"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="74"/>
+      <c r="Q58" s="74"/>
+      <c r="R58" s="74"/>
+      <c r="S58" s="74"/>
+      <c r="T58" s="75"/>
+      <c r="U58" s="31"/>
+      <c r="V58" s="32"/>
+      <c r="W58" s="32"/>
+      <c r="X58" s="32"/>
+      <c r="Y58" s="32"/>
+      <c r="Z58" s="33"/>
     </row>
     <row r="59" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A59" s="1">
@@ -4288,30 +4324,30 @@
       <c r="B59" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="187"/>
-      <c r="D59" s="188"/>
-      <c r="E59" s="188"/>
-      <c r="F59" s="188"/>
-      <c r="G59" s="188"/>
-      <c r="H59" s="189"/>
-      <c r="I59" s="196"/>
-      <c r="J59" s="197"/>
-      <c r="K59" s="197"/>
-      <c r="L59" s="197"/>
-      <c r="M59" s="197"/>
-      <c r="N59" s="198"/>
-      <c r="O59" s="239"/>
-      <c r="P59" s="240"/>
-      <c r="Q59" s="240"/>
-      <c r="R59" s="240"/>
-      <c r="S59" s="240"/>
-      <c r="T59" s="241"/>
-      <c r="U59" s="196"/>
-      <c r="V59" s="197"/>
-      <c r="W59" s="197"/>
-      <c r="X59" s="197"/>
-      <c r="Y59" s="197"/>
-      <c r="Z59" s="198"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="36"/>
+      <c r="O59" s="76"/>
+      <c r="P59" s="77"/>
+      <c r="Q59" s="77"/>
+      <c r="R59" s="77"/>
+      <c r="S59" s="77"/>
+      <c r="T59" s="78"/>
+      <c r="U59" s="34"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="36"/>
     </row>
     <row r="60" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
@@ -4320,34 +4356,34 @@
       <c r="B60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="200" t="s">
+      <c r="C60" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="201"/>
-      <c r="E60" s="201"/>
-      <c r="F60" s="201"/>
-      <c r="G60" s="201"/>
-      <c r="H60" s="202"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="74"/>
-      <c r="K60" s="74"/>
-      <c r="L60" s="74"/>
-      <c r="M60" s="74"/>
-      <c r="N60" s="75"/>
-      <c r="O60" s="199" t="s">
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
+      <c r="G60" s="47"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="62"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="62"/>
+      <c r="N60" s="63"/>
+      <c r="O60" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="P60" s="101"/>
-      <c r="Q60" s="101"/>
-      <c r="R60" s="101"/>
-      <c r="S60" s="101"/>
-      <c r="T60" s="102"/>
-      <c r="U60" s="91"/>
-      <c r="V60" s="92"/>
-      <c r="W60" s="92"/>
-      <c r="X60" s="92"/>
-      <c r="Y60" s="92"/>
-      <c r="Z60" s="93"/>
+      <c r="P60" s="38"/>
+      <c r="Q60" s="38"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="38"/>
+      <c r="T60" s="39"/>
+      <c r="U60" s="55"/>
+      <c r="V60" s="56"/>
+      <c r="W60" s="56"/>
+      <c r="X60" s="56"/>
+      <c r="Y60" s="56"/>
+      <c r="Z60" s="57"/>
     </row>
     <row r="61" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
@@ -4356,30 +4392,30 @@
       <c r="B61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="203"/>
-      <c r="D61" s="204"/>
-      <c r="E61" s="204"/>
-      <c r="F61" s="204"/>
-      <c r="G61" s="204"/>
-      <c r="H61" s="205"/>
-      <c r="I61" s="76"/>
-      <c r="J61" s="77"/>
-      <c r="K61" s="77"/>
-      <c r="L61" s="77"/>
-      <c r="M61" s="77"/>
-      <c r="N61" s="78"/>
-      <c r="O61" s="103"/>
-      <c r="P61" s="104"/>
-      <c r="Q61" s="104"/>
-      <c r="R61" s="104"/>
-      <c r="S61" s="104"/>
-      <c r="T61" s="105"/>
-      <c r="U61" s="94"/>
-      <c r="V61" s="95"/>
-      <c r="W61" s="95"/>
-      <c r="X61" s="95"/>
-      <c r="Y61" s="95"/>
-      <c r="Z61" s="96"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="50"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="65"/>
+      <c r="M61" s="65"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="41"/>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="41"/>
+      <c r="S61" s="41"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="58"/>
+      <c r="V61" s="59"/>
+      <c r="W61" s="59"/>
+      <c r="X61" s="59"/>
+      <c r="Y61" s="59"/>
+      <c r="Z61" s="60"/>
     </row>
     <row r="62" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
@@ -4388,30 +4424,30 @@
       <c r="B62" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="203"/>
-      <c r="D62" s="204"/>
-      <c r="E62" s="204"/>
-      <c r="F62" s="204"/>
-      <c r="G62" s="204"/>
-      <c r="H62" s="205"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="77"/>
-      <c r="K62" s="77"/>
-      <c r="L62" s="77"/>
-      <c r="M62" s="77"/>
-      <c r="N62" s="78"/>
-      <c r="O62" s="103"/>
-      <c r="P62" s="104"/>
-      <c r="Q62" s="104"/>
-      <c r="R62" s="104"/>
-      <c r="S62" s="104"/>
-      <c r="T62" s="105"/>
-      <c r="U62" s="94"/>
-      <c r="V62" s="95"/>
-      <c r="W62" s="95"/>
-      <c r="X62" s="95"/>
-      <c r="Y62" s="95"/>
-      <c r="Z62" s="96"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="65"/>
+      <c r="M62" s="65"/>
+      <c r="N62" s="66"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="41"/>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="41"/>
+      <c r="S62" s="41"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="58"/>
+      <c r="V62" s="59"/>
+      <c r="W62" s="59"/>
+      <c r="X62" s="59"/>
+      <c r="Y62" s="59"/>
+      <c r="Z62" s="60"/>
     </row>
     <row r="63" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
@@ -4420,30 +4456,30 @@
       <c r="B63" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C63" s="203"/>
-      <c r="D63" s="204"/>
-      <c r="E63" s="204"/>
-      <c r="F63" s="204"/>
-      <c r="G63" s="204"/>
-      <c r="H63" s="205"/>
-      <c r="I63" s="76"/>
-      <c r="J63" s="77"/>
-      <c r="K63" s="77"/>
-      <c r="L63" s="77"/>
-      <c r="M63" s="77"/>
-      <c r="N63" s="78"/>
-      <c r="O63" s="103"/>
-      <c r="P63" s="104"/>
-      <c r="Q63" s="104"/>
-      <c r="R63" s="104"/>
-      <c r="S63" s="104"/>
-      <c r="T63" s="105"/>
-      <c r="U63" s="94"/>
-      <c r="V63" s="95"/>
-      <c r="W63" s="95"/>
-      <c r="X63" s="95"/>
-      <c r="Y63" s="95"/>
-      <c r="Z63" s="96"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="66"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="41"/>
+      <c r="Q63" s="41"/>
+      <c r="R63" s="41"/>
+      <c r="S63" s="41"/>
+      <c r="T63" s="42"/>
+      <c r="U63" s="58"/>
+      <c r="V63" s="59"/>
+      <c r="W63" s="59"/>
+      <c r="X63" s="59"/>
+      <c r="Y63" s="59"/>
+      <c r="Z63" s="60"/>
     </row>
     <row r="64" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
@@ -4452,30 +4488,30 @@
       <c r="B64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C64" s="203"/>
-      <c r="D64" s="204"/>
-      <c r="E64" s="204"/>
-      <c r="F64" s="204"/>
-      <c r="G64" s="204"/>
-      <c r="H64" s="205"/>
-      <c r="I64" s="76"/>
-      <c r="J64" s="77"/>
-      <c r="K64" s="77"/>
-      <c r="L64" s="77"/>
-      <c r="M64" s="77"/>
-      <c r="N64" s="78"/>
-      <c r="O64" s="103"/>
-      <c r="P64" s="104"/>
-      <c r="Q64" s="104"/>
-      <c r="R64" s="104"/>
-      <c r="S64" s="104"/>
-      <c r="T64" s="105"/>
-      <c r="U64" s="94"/>
-      <c r="V64" s="95"/>
-      <c r="W64" s="95"/>
-      <c r="X64" s="95"/>
-      <c r="Y64" s="95"/>
-      <c r="Z64" s="96"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="51"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="65"/>
+      <c r="K64" s="65"/>
+      <c r="L64" s="65"/>
+      <c r="M64" s="65"/>
+      <c r="N64" s="66"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="41"/>
+      <c r="Q64" s="41"/>
+      <c r="R64" s="41"/>
+      <c r="S64" s="41"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="58"/>
+      <c r="V64" s="59"/>
+      <c r="W64" s="59"/>
+      <c r="X64" s="59"/>
+      <c r="Y64" s="59"/>
+      <c r="Z64" s="60"/>
     </row>
     <row r="65" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
@@ -4484,30 +4520,30 @@
       <c r="B65" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="203"/>
-      <c r="D65" s="204"/>
-      <c r="E65" s="204"/>
-      <c r="F65" s="204"/>
-      <c r="G65" s="204"/>
-      <c r="H65" s="205"/>
-      <c r="I65" s="76"/>
-      <c r="J65" s="77"/>
-      <c r="K65" s="77"/>
-      <c r="L65" s="77"/>
-      <c r="M65" s="77"/>
-      <c r="N65" s="78"/>
-      <c r="O65" s="103"/>
-      <c r="P65" s="104"/>
-      <c r="Q65" s="104"/>
-      <c r="R65" s="104"/>
-      <c r="S65" s="104"/>
-      <c r="T65" s="105"/>
-      <c r="U65" s="94"/>
-      <c r="V65" s="95"/>
-      <c r="W65" s="95"/>
-      <c r="X65" s="95"/>
-      <c r="Y65" s="95"/>
-      <c r="Z65" s="96"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="65"/>
+      <c r="L65" s="65"/>
+      <c r="M65" s="65"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="41"/>
+      <c r="Q65" s="41"/>
+      <c r="R65" s="41"/>
+      <c r="S65" s="41"/>
+      <c r="T65" s="42"/>
+      <c r="U65" s="58"/>
+      <c r="V65" s="59"/>
+      <c r="W65" s="59"/>
+      <c r="X65" s="59"/>
+      <c r="Y65" s="59"/>
+      <c r="Z65" s="60"/>
     </row>
     <row r="66" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="1">
@@ -4516,30 +4552,30 @@
       <c r="B66" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="206"/>
-      <c r="D66" s="207"/>
-      <c r="E66" s="207"/>
-      <c r="F66" s="207"/>
-      <c r="G66" s="207"/>
-      <c r="H66" s="208"/>
-      <c r="I66" s="79"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
-      <c r="L66" s="80"/>
-      <c r="M66" s="80"/>
-      <c r="N66" s="81"/>
-      <c r="O66" s="106"/>
-      <c r="P66" s="107"/>
-      <c r="Q66" s="107"/>
-      <c r="R66" s="107"/>
-      <c r="S66" s="107"/>
-      <c r="T66" s="108"/>
-      <c r="U66" s="94"/>
-      <c r="V66" s="95"/>
-      <c r="W66" s="95"/>
-      <c r="X66" s="95"/>
-      <c r="Y66" s="95"/>
-      <c r="Z66" s="96"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="68"/>
+      <c r="K66" s="68"/>
+      <c r="L66" s="68"/>
+      <c r="M66" s="68"/>
+      <c r="N66" s="69"/>
+      <c r="O66" s="43"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="44"/>
+      <c r="S66" s="44"/>
+      <c r="T66" s="45"/>
+      <c r="U66" s="58"/>
+      <c r="V66" s="59"/>
+      <c r="W66" s="59"/>
+      <c r="X66" s="59"/>
+      <c r="Y66" s="59"/>
+      <c r="Z66" s="60"/>
     </row>
     <row r="67" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
@@ -4548,34 +4584,34 @@
       <c r="B67" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="4"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="224" t="s">
+      <c r="C67" s="55"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="240" t="s">
         <v>34</v>
       </c>
-      <c r="J67" s="225"/>
-      <c r="K67" s="225"/>
-      <c r="L67" s="225"/>
-      <c r="M67" s="225"/>
-      <c r="N67" s="226"/>
-      <c r="O67" s="253" t="s">
+      <c r="J67" s="241"/>
+      <c r="K67" s="241"/>
+      <c r="L67" s="241"/>
+      <c r="M67" s="241"/>
+      <c r="N67" s="242"/>
+      <c r="O67" s="243" t="s">
         <v>33</v>
       </c>
-      <c r="P67" s="248"/>
-      <c r="Q67" s="248"/>
-      <c r="R67" s="248"/>
-      <c r="S67" s="248"/>
-      <c r="T67" s="248"/>
-      <c r="U67" s="4"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="6"/>
+      <c r="P67" s="244"/>
+      <c r="Q67" s="244"/>
+      <c r="R67" s="244"/>
+      <c r="S67" s="244"/>
+      <c r="T67" s="244"/>
+      <c r="U67" s="55"/>
+      <c r="V67" s="56"/>
+      <c r="W67" s="56"/>
+      <c r="X67" s="56"/>
+      <c r="Y67" s="56"/>
+      <c r="Z67" s="57"/>
     </row>
     <row r="68" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
@@ -4584,30 +4620,30 @@
       <c r="B68" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="227"/>
-      <c r="J68" s="228"/>
-      <c r="K68" s="228"/>
-      <c r="L68" s="228"/>
-      <c r="M68" s="228"/>
-      <c r="N68" s="229"/>
-      <c r="O68" s="249"/>
-      <c r="P68" s="250"/>
-      <c r="Q68" s="250"/>
-      <c r="R68" s="250"/>
-      <c r="S68" s="250"/>
-      <c r="T68" s="250"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="8"/>
-      <c r="W68" s="8"/>
-      <c r="X68" s="8"/>
-      <c r="Y68" s="8"/>
-      <c r="Z68" s="9"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="245"/>
+      <c r="J68" s="246"/>
+      <c r="K68" s="246"/>
+      <c r="L68" s="246"/>
+      <c r="M68" s="246"/>
+      <c r="N68" s="247"/>
+      <c r="O68" s="248"/>
+      <c r="P68" s="249"/>
+      <c r="Q68" s="249"/>
+      <c r="R68" s="249"/>
+      <c r="S68" s="249"/>
+      <c r="T68" s="249"/>
+      <c r="U68" s="58"/>
+      <c r="V68" s="59"/>
+      <c r="W68" s="59"/>
+      <c r="X68" s="59"/>
+      <c r="Y68" s="59"/>
+      <c r="Z68" s="60"/>
     </row>
     <row r="69" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
@@ -4616,30 +4652,30 @@
       <c r="B69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="227"/>
-      <c r="J69" s="228"/>
-      <c r="K69" s="228"/>
-      <c r="L69" s="228"/>
-      <c r="M69" s="228"/>
-      <c r="N69" s="229"/>
-      <c r="O69" s="249"/>
-      <c r="P69" s="250"/>
-      <c r="Q69" s="250"/>
-      <c r="R69" s="250"/>
-      <c r="S69" s="250"/>
-      <c r="T69" s="250"/>
-      <c r="U69" s="7"/>
-      <c r="V69" s="8"/>
-      <c r="W69" s="8"/>
-      <c r="X69" s="8"/>
-      <c r="Y69" s="8"/>
-      <c r="Z69" s="9"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="245"/>
+      <c r="J69" s="246"/>
+      <c r="K69" s="246"/>
+      <c r="L69" s="246"/>
+      <c r="M69" s="246"/>
+      <c r="N69" s="247"/>
+      <c r="O69" s="248"/>
+      <c r="P69" s="249"/>
+      <c r="Q69" s="249"/>
+      <c r="R69" s="249"/>
+      <c r="S69" s="249"/>
+      <c r="T69" s="249"/>
+      <c r="U69" s="58"/>
+      <c r="V69" s="59"/>
+      <c r="W69" s="59"/>
+      <c r="X69" s="59"/>
+      <c r="Y69" s="59"/>
+      <c r="Z69" s="60"/>
     </row>
     <row r="70" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
@@ -4648,30 +4684,30 @@
       <c r="B70" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="227"/>
-      <c r="J70" s="228"/>
-      <c r="K70" s="228"/>
-      <c r="L70" s="228"/>
-      <c r="M70" s="228"/>
-      <c r="N70" s="229"/>
-      <c r="O70" s="249"/>
-      <c r="P70" s="250"/>
-      <c r="Q70" s="250"/>
-      <c r="R70" s="250"/>
-      <c r="S70" s="250"/>
-      <c r="T70" s="250"/>
-      <c r="U70" s="7"/>
-      <c r="V70" s="8"/>
-      <c r="W70" s="8"/>
-      <c r="X70" s="8"/>
-      <c r="Y70" s="8"/>
-      <c r="Z70" s="9"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="60"/>
+      <c r="I70" s="245"/>
+      <c r="J70" s="246"/>
+      <c r="K70" s="246"/>
+      <c r="L70" s="246"/>
+      <c r="M70" s="246"/>
+      <c r="N70" s="247"/>
+      <c r="O70" s="248"/>
+      <c r="P70" s="249"/>
+      <c r="Q70" s="249"/>
+      <c r="R70" s="249"/>
+      <c r="S70" s="249"/>
+      <c r="T70" s="249"/>
+      <c r="U70" s="58"/>
+      <c r="V70" s="59"/>
+      <c r="W70" s="59"/>
+      <c r="X70" s="59"/>
+      <c r="Y70" s="59"/>
+      <c r="Z70" s="60"/>
     </row>
     <row r="71" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
@@ -4680,30 +4716,30 @@
       <c r="B71" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="227"/>
-      <c r="J71" s="228"/>
-      <c r="K71" s="228"/>
-      <c r="L71" s="228"/>
-      <c r="M71" s="228"/>
-      <c r="N71" s="229"/>
-      <c r="O71" s="249"/>
-      <c r="P71" s="250"/>
-      <c r="Q71" s="250"/>
-      <c r="R71" s="250"/>
-      <c r="S71" s="250"/>
-      <c r="T71" s="250"/>
-      <c r="U71" s="7"/>
-      <c r="V71" s="8"/>
-      <c r="W71" s="8"/>
-      <c r="X71" s="8"/>
-      <c r="Y71" s="8"/>
-      <c r="Z71" s="9"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="245"/>
+      <c r="J71" s="246"/>
+      <c r="K71" s="246"/>
+      <c r="L71" s="246"/>
+      <c r="M71" s="246"/>
+      <c r="N71" s="247"/>
+      <c r="O71" s="248"/>
+      <c r="P71" s="249"/>
+      <c r="Q71" s="249"/>
+      <c r="R71" s="249"/>
+      <c r="S71" s="249"/>
+      <c r="T71" s="249"/>
+      <c r="U71" s="58"/>
+      <c r="V71" s="59"/>
+      <c r="W71" s="59"/>
+      <c r="X71" s="59"/>
+      <c r="Y71" s="59"/>
+      <c r="Z71" s="60"/>
     </row>
     <row r="72" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
@@ -4712,30 +4748,30 @@
       <c r="B72" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="227"/>
-      <c r="J72" s="228"/>
-      <c r="K72" s="228"/>
-      <c r="L72" s="228"/>
-      <c r="M72" s="228"/>
-      <c r="N72" s="229"/>
-      <c r="O72" s="249"/>
-      <c r="P72" s="250"/>
-      <c r="Q72" s="250"/>
-      <c r="R72" s="250"/>
-      <c r="S72" s="250"/>
-      <c r="T72" s="250"/>
-      <c r="U72" s="7"/>
-      <c r="V72" s="8"/>
-      <c r="W72" s="8"/>
-      <c r="X72" s="8"/>
-      <c r="Y72" s="8"/>
-      <c r="Z72" s="9"/>
+      <c r="C72" s="58"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="245"/>
+      <c r="J72" s="246"/>
+      <c r="K72" s="246"/>
+      <c r="L72" s="246"/>
+      <c r="M72" s="246"/>
+      <c r="N72" s="247"/>
+      <c r="O72" s="248"/>
+      <c r="P72" s="249"/>
+      <c r="Q72" s="249"/>
+      <c r="R72" s="249"/>
+      <c r="S72" s="249"/>
+      <c r="T72" s="249"/>
+      <c r="U72" s="58"/>
+      <c r="V72" s="59"/>
+      <c r="W72" s="59"/>
+      <c r="X72" s="59"/>
+      <c r="Y72" s="59"/>
+      <c r="Z72" s="60"/>
     </row>
     <row r="73" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A73" s="1">
@@ -4744,30 +4780,30 @@
       <c r="B73" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="12"/>
-      <c r="I73" s="230"/>
-      <c r="J73" s="231"/>
-      <c r="K73" s="231"/>
-      <c r="L73" s="231"/>
-      <c r="M73" s="231"/>
-      <c r="N73" s="232"/>
-      <c r="O73" s="251"/>
-      <c r="P73" s="252"/>
-      <c r="Q73" s="252"/>
-      <c r="R73" s="252"/>
-      <c r="S73" s="252"/>
-      <c r="T73" s="252"/>
-      <c r="U73" s="10"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="11"/>
-      <c r="X73" s="11"/>
-      <c r="Y73" s="11"/>
-      <c r="Z73" s="12"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="89"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="89"/>
+      <c r="G73" s="89"/>
+      <c r="H73" s="90"/>
+      <c r="I73" s="250"/>
+      <c r="J73" s="251"/>
+      <c r="K73" s="251"/>
+      <c r="L73" s="251"/>
+      <c r="M73" s="251"/>
+      <c r="N73" s="252"/>
+      <c r="O73" s="253"/>
+      <c r="P73" s="254"/>
+      <c r="Q73" s="254"/>
+      <c r="R73" s="254"/>
+      <c r="S73" s="254"/>
+      <c r="T73" s="254"/>
+      <c r="U73" s="88"/>
+      <c r="V73" s="89"/>
+      <c r="W73" s="89"/>
+      <c r="X73" s="89"/>
+      <c r="Y73" s="89"/>
+      <c r="Z73" s="90"/>
     </row>
     <row r="74" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
@@ -4776,34 +4812,34 @@
       <c r="B74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="254" t="s">
+      <c r="C74" s="55"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="255" t="s">
         <v>35</v>
       </c>
-      <c r="J74" s="255"/>
-      <c r="K74" s="255"/>
-      <c r="L74" s="255"/>
-      <c r="M74" s="255"/>
-      <c r="N74" s="256"/>
-      <c r="O74" s="218" t="s">
-        <v>20</v>
-      </c>
-      <c r="P74" s="219"/>
-      <c r="Q74" s="219"/>
-      <c r="R74" s="219"/>
-      <c r="S74" s="219"/>
-      <c r="T74" s="219"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="5"/>
-      <c r="W74" s="5"/>
-      <c r="X74" s="5"/>
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="6"/>
+      <c r="J74" s="110"/>
+      <c r="K74" s="110"/>
+      <c r="L74" s="110"/>
+      <c r="M74" s="110"/>
+      <c r="N74" s="111"/>
+      <c r="O74" s="243" t="s">
+        <v>33</v>
+      </c>
+      <c r="P74" s="244"/>
+      <c r="Q74" s="244"/>
+      <c r="R74" s="244"/>
+      <c r="S74" s="244"/>
+      <c r="T74" s="244"/>
+      <c r="U74" s="55"/>
+      <c r="V74" s="56"/>
+      <c r="W74" s="56"/>
+      <c r="X74" s="56"/>
+      <c r="Y74" s="56"/>
+      <c r="Z74" s="57"/>
     </row>
     <row r="75" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
@@ -4812,30 +4848,30 @@
       <c r="B75" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="7"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="257"/>
-      <c r="J75" s="258"/>
-      <c r="K75" s="258"/>
-      <c r="L75" s="258"/>
-      <c r="M75" s="258"/>
-      <c r="N75" s="259"/>
-      <c r="O75" s="220"/>
-      <c r="P75" s="221"/>
-      <c r="Q75" s="221"/>
-      <c r="R75" s="221"/>
-      <c r="S75" s="221"/>
-      <c r="T75" s="221"/>
-      <c r="U75" s="7"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="8"/>
-      <c r="X75" s="8"/>
-      <c r="Y75" s="8"/>
-      <c r="Z75" s="9"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="60"/>
+      <c r="I75" s="112"/>
+      <c r="J75" s="113"/>
+      <c r="K75" s="113"/>
+      <c r="L75" s="113"/>
+      <c r="M75" s="113"/>
+      <c r="N75" s="114"/>
+      <c r="O75" s="248"/>
+      <c r="P75" s="249"/>
+      <c r="Q75" s="249"/>
+      <c r="R75" s="249"/>
+      <c r="S75" s="249"/>
+      <c r="T75" s="249"/>
+      <c r="U75" s="58"/>
+      <c r="V75" s="59"/>
+      <c r="W75" s="59"/>
+      <c r="X75" s="59"/>
+      <c r="Y75" s="59"/>
+      <c r="Z75" s="60"/>
     </row>
     <row r="76" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
@@ -4844,30 +4880,30 @@
       <c r="B76" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="7"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="257"/>
-      <c r="J76" s="258"/>
-      <c r="K76" s="258"/>
-      <c r="L76" s="258"/>
-      <c r="M76" s="258"/>
-      <c r="N76" s="259"/>
-      <c r="O76" s="220"/>
-      <c r="P76" s="221"/>
-      <c r="Q76" s="221"/>
-      <c r="R76" s="221"/>
-      <c r="S76" s="221"/>
-      <c r="T76" s="221"/>
-      <c r="U76" s="7"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="8"/>
-      <c r="X76" s="8"/>
-      <c r="Y76" s="8"/>
-      <c r="Z76" s="9"/>
+      <c r="C76" s="58"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="59"/>
+      <c r="F76" s="59"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="112"/>
+      <c r="J76" s="113"/>
+      <c r="K76" s="113"/>
+      <c r="L76" s="113"/>
+      <c r="M76" s="113"/>
+      <c r="N76" s="114"/>
+      <c r="O76" s="248"/>
+      <c r="P76" s="249"/>
+      <c r="Q76" s="249"/>
+      <c r="R76" s="249"/>
+      <c r="S76" s="249"/>
+      <c r="T76" s="249"/>
+      <c r="U76" s="58"/>
+      <c r="V76" s="59"/>
+      <c r="W76" s="59"/>
+      <c r="X76" s="59"/>
+      <c r="Y76" s="59"/>
+      <c r="Z76" s="60"/>
     </row>
     <row r="77" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
@@ -4876,30 +4912,30 @@
       <c r="B77" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="257"/>
-      <c r="J77" s="258"/>
-      <c r="K77" s="258"/>
-      <c r="L77" s="258"/>
-      <c r="M77" s="258"/>
-      <c r="N77" s="259"/>
-      <c r="O77" s="220"/>
-      <c r="P77" s="221"/>
-      <c r="Q77" s="221"/>
-      <c r="R77" s="221"/>
-      <c r="S77" s="221"/>
-      <c r="T77" s="221"/>
-      <c r="U77" s="7"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="8"/>
-      <c r="X77" s="8"/>
-      <c r="Y77" s="8"/>
-      <c r="Z77" s="9"/>
+      <c r="C77" s="58"/>
+      <c r="D77" s="59"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="112"/>
+      <c r="J77" s="113"/>
+      <c r="K77" s="113"/>
+      <c r="L77" s="113"/>
+      <c r="M77" s="113"/>
+      <c r="N77" s="114"/>
+      <c r="O77" s="248"/>
+      <c r="P77" s="249"/>
+      <c r="Q77" s="249"/>
+      <c r="R77" s="249"/>
+      <c r="S77" s="249"/>
+      <c r="T77" s="249"/>
+      <c r="U77" s="58"/>
+      <c r="V77" s="59"/>
+      <c r="W77" s="59"/>
+      <c r="X77" s="59"/>
+      <c r="Y77" s="59"/>
+      <c r="Z77" s="60"/>
     </row>
     <row r="78" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
@@ -4908,30 +4944,30 @@
       <c r="B78" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="7"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="257"/>
-      <c r="J78" s="258"/>
-      <c r="K78" s="258"/>
-      <c r="L78" s="258"/>
-      <c r="M78" s="258"/>
-      <c r="N78" s="259"/>
-      <c r="O78" s="220"/>
-      <c r="P78" s="221"/>
-      <c r="Q78" s="221"/>
-      <c r="R78" s="221"/>
-      <c r="S78" s="221"/>
-      <c r="T78" s="221"/>
-      <c r="U78" s="7"/>
-      <c r="V78" s="8"/>
-      <c r="W78" s="8"/>
-      <c r="X78" s="8"/>
-      <c r="Y78" s="8"/>
-      <c r="Z78" s="9"/>
+      <c r="C78" s="58"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="112"/>
+      <c r="J78" s="113"/>
+      <c r="K78" s="113"/>
+      <c r="L78" s="113"/>
+      <c r="M78" s="113"/>
+      <c r="N78" s="114"/>
+      <c r="O78" s="248"/>
+      <c r="P78" s="249"/>
+      <c r="Q78" s="249"/>
+      <c r="R78" s="249"/>
+      <c r="S78" s="249"/>
+      <c r="T78" s="249"/>
+      <c r="U78" s="58"/>
+      <c r="V78" s="59"/>
+      <c r="W78" s="59"/>
+      <c r="X78" s="59"/>
+      <c r="Y78" s="59"/>
+      <c r="Z78" s="60"/>
     </row>
     <row r="79" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
@@ -4940,30 +4976,30 @@
       <c r="B79" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="257"/>
-      <c r="J79" s="258"/>
-      <c r="K79" s="258"/>
-      <c r="L79" s="258"/>
-      <c r="M79" s="258"/>
-      <c r="N79" s="259"/>
-      <c r="O79" s="220"/>
-      <c r="P79" s="221"/>
-      <c r="Q79" s="221"/>
-      <c r="R79" s="221"/>
-      <c r="S79" s="221"/>
-      <c r="T79" s="221"/>
-      <c r="U79" s="7"/>
-      <c r="V79" s="8"/>
-      <c r="W79" s="8"/>
-      <c r="X79" s="8"/>
-      <c r="Y79" s="8"/>
-      <c r="Z79" s="9"/>
+      <c r="C79" s="58"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="59"/>
+      <c r="H79" s="60"/>
+      <c r="I79" s="112"/>
+      <c r="J79" s="113"/>
+      <c r="K79" s="113"/>
+      <c r="L79" s="113"/>
+      <c r="M79" s="113"/>
+      <c r="N79" s="114"/>
+      <c r="O79" s="248"/>
+      <c r="P79" s="249"/>
+      <c r="Q79" s="249"/>
+      <c r="R79" s="249"/>
+      <c r="S79" s="249"/>
+      <c r="T79" s="249"/>
+      <c r="U79" s="58"/>
+      <c r="V79" s="59"/>
+      <c r="W79" s="59"/>
+      <c r="X79" s="59"/>
+      <c r="Y79" s="59"/>
+      <c r="Z79" s="60"/>
     </row>
     <row r="80" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A80" s="1">
@@ -4972,30 +5008,30 @@
       <c r="B80" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="260"/>
-      <c r="J80" s="261"/>
-      <c r="K80" s="261"/>
-      <c r="L80" s="261"/>
-      <c r="M80" s="261"/>
-      <c r="N80" s="262"/>
-      <c r="O80" s="222"/>
-      <c r="P80" s="223"/>
-      <c r="Q80" s="223"/>
-      <c r="R80" s="223"/>
-      <c r="S80" s="223"/>
-      <c r="T80" s="223"/>
-      <c r="U80" s="10"/>
-      <c r="V80" s="11"/>
-      <c r="W80" s="11"/>
-      <c r="X80" s="11"/>
-      <c r="Y80" s="11"/>
-      <c r="Z80" s="12"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="89"/>
+      <c r="F80" s="89"/>
+      <c r="G80" s="89"/>
+      <c r="H80" s="90"/>
+      <c r="I80" s="115"/>
+      <c r="J80" s="116"/>
+      <c r="K80" s="116"/>
+      <c r="L80" s="116"/>
+      <c r="M80" s="116"/>
+      <c r="N80" s="117"/>
+      <c r="O80" s="253"/>
+      <c r="P80" s="254"/>
+      <c r="Q80" s="254"/>
+      <c r="R80" s="254"/>
+      <c r="S80" s="254"/>
+      <c r="T80" s="254"/>
+      <c r="U80" s="88"/>
+      <c r="V80" s="89"/>
+      <c r="W80" s="89"/>
+      <c r="X80" s="89"/>
+      <c r="Y80" s="89"/>
+      <c r="Z80" s="90"/>
     </row>
     <row r="81" spans="1:26" ht="17.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
@@ -5004,28 +5040,30 @@
       <c r="B81" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C81" s="4"/>
+      <c r="C81" s="256" t="s">
+        <v>39</v>
+      </c>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="6"/>
-      <c r="I81" s="263" t="s">
+      <c r="I81" s="221" t="s">
         <v>36</v>
       </c>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="242" t="s">
-        <v>21</v>
-      </c>
-      <c r="P81" s="243"/>
-      <c r="Q81" s="243"/>
-      <c r="R81" s="243"/>
-      <c r="S81" s="243"/>
-      <c r="T81" s="243"/>
+      <c r="J81" s="222"/>
+      <c r="K81" s="222"/>
+      <c r="L81" s="222"/>
+      <c r="M81" s="222"/>
+      <c r="N81" s="223"/>
+      <c r="O81" s="215" t="s">
+        <v>20</v>
+      </c>
+      <c r="P81" s="216"/>
+      <c r="Q81" s="216"/>
+      <c r="R81" s="216"/>
+      <c r="S81" s="216"/>
+      <c r="T81" s="216"/>
       <c r="U81" s="4"/>
       <c r="V81" s="5"/>
       <c r="W81" s="5"/>
@@ -5046,18 +5084,18 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="9"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="244"/>
-      <c r="P82" s="245"/>
-      <c r="Q82" s="245"/>
-      <c r="R82" s="245"/>
-      <c r="S82" s="245"/>
-      <c r="T82" s="245"/>
+      <c r="I82" s="224"/>
+      <c r="J82" s="225"/>
+      <c r="K82" s="225"/>
+      <c r="L82" s="225"/>
+      <c r="M82" s="225"/>
+      <c r="N82" s="226"/>
+      <c r="O82" s="217"/>
+      <c r="P82" s="218"/>
+      <c r="Q82" s="218"/>
+      <c r="R82" s="218"/>
+      <c r="S82" s="218"/>
+      <c r="T82" s="218"/>
       <c r="U82" s="7"/>
       <c r="V82" s="8"/>
       <c r="W82" s="8"/>
@@ -5078,18 +5116,18 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="9"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="244"/>
-      <c r="P83" s="245"/>
-      <c r="Q83" s="245"/>
-      <c r="R83" s="245"/>
-      <c r="S83" s="245"/>
-      <c r="T83" s="245"/>
+      <c r="I83" s="224"/>
+      <c r="J83" s="225"/>
+      <c r="K83" s="225"/>
+      <c r="L83" s="225"/>
+      <c r="M83" s="225"/>
+      <c r="N83" s="226"/>
+      <c r="O83" s="217"/>
+      <c r="P83" s="218"/>
+      <c r="Q83" s="218"/>
+      <c r="R83" s="218"/>
+      <c r="S83" s="218"/>
+      <c r="T83" s="218"/>
       <c r="U83" s="7"/>
       <c r="V83" s="8"/>
       <c r="W83" s="8"/>
@@ -5110,18 +5148,18 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="9"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="244"/>
-      <c r="P84" s="245"/>
-      <c r="Q84" s="245"/>
-      <c r="R84" s="245"/>
-      <c r="S84" s="245"/>
-      <c r="T84" s="245"/>
+      <c r="I84" s="224"/>
+      <c r="J84" s="225"/>
+      <c r="K84" s="225"/>
+      <c r="L84" s="225"/>
+      <c r="M84" s="225"/>
+      <c r="N84" s="226"/>
+      <c r="O84" s="217"/>
+      <c r="P84" s="218"/>
+      <c r="Q84" s="218"/>
+      <c r="R84" s="218"/>
+      <c r="S84" s="218"/>
+      <c r="T84" s="218"/>
       <c r="U84" s="7"/>
       <c r="V84" s="8"/>
       <c r="W84" s="8"/>
@@ -5142,18 +5180,18 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="9"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="18"/>
-      <c r="O85" s="244"/>
-      <c r="P85" s="245"/>
-      <c r="Q85" s="245"/>
-      <c r="R85" s="245"/>
-      <c r="S85" s="245"/>
-      <c r="T85" s="245"/>
+      <c r="I85" s="224"/>
+      <c r="J85" s="225"/>
+      <c r="K85" s="225"/>
+      <c r="L85" s="225"/>
+      <c r="M85" s="225"/>
+      <c r="N85" s="226"/>
+      <c r="O85" s="217"/>
+      <c r="P85" s="218"/>
+      <c r="Q85" s="218"/>
+      <c r="R85" s="218"/>
+      <c r="S85" s="218"/>
+      <c r="T85" s="218"/>
       <c r="U85" s="7"/>
       <c r="V85" s="8"/>
       <c r="W85" s="8"/>
@@ -5174,18 +5212,18 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="9"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="244"/>
-      <c r="P86" s="245"/>
-      <c r="Q86" s="245"/>
-      <c r="R86" s="245"/>
-      <c r="S86" s="245"/>
-      <c r="T86" s="245"/>
+      <c r="I86" s="224"/>
+      <c r="J86" s="225"/>
+      <c r="K86" s="225"/>
+      <c r="L86" s="225"/>
+      <c r="M86" s="225"/>
+      <c r="N86" s="226"/>
+      <c r="O86" s="217"/>
+      <c r="P86" s="218"/>
+      <c r="Q86" s="218"/>
+      <c r="R86" s="218"/>
+      <c r="S86" s="218"/>
+      <c r="T86" s="218"/>
       <c r="U86" s="7"/>
       <c r="V86" s="8"/>
       <c r="W86" s="8"/>
@@ -5206,18 +5244,18 @@
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="12"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="20"/>
-      <c r="M87" s="20"/>
-      <c r="N87" s="21"/>
-      <c r="O87" s="246"/>
-      <c r="P87" s="247"/>
-      <c r="Q87" s="247"/>
-      <c r="R87" s="247"/>
-      <c r="S87" s="247"/>
-      <c r="T87" s="247"/>
+      <c r="I87" s="227"/>
+      <c r="J87" s="228"/>
+      <c r="K87" s="228"/>
+      <c r="L87" s="228"/>
+      <c r="M87" s="228"/>
+      <c r="N87" s="229"/>
+      <c r="O87" s="219"/>
+      <c r="P87" s="220"/>
+      <c r="Q87" s="220"/>
+      <c r="R87" s="220"/>
+      <c r="S87" s="220"/>
+      <c r="T87" s="220"/>
       <c r="U87" s="10"/>
       <c r="V87" s="11"/>
       <c r="W87" s="11"/>
@@ -5238,26 +5276,28 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="6"/>
-      <c r="I88" s="224" t="s">
+      <c r="I88" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="J88" s="225"/>
-      <c r="K88" s="225"/>
-      <c r="L88" s="225"/>
-      <c r="M88" s="225"/>
-      <c r="N88" s="226"/>
-      <c r="O88" s="209"/>
-      <c r="P88" s="210"/>
-      <c r="Q88" s="210"/>
-      <c r="R88" s="210"/>
-      <c r="S88" s="210"/>
-      <c r="T88" s="211"/>
-      <c r="U88" s="7"/>
-      <c r="V88" s="8"/>
-      <c r="W88" s="8"/>
-      <c r="X88" s="8"/>
-      <c r="Y88" s="8"/>
-      <c r="Z88" s="9"/>
+      <c r="J88" s="231"/>
+      <c r="K88" s="231"/>
+      <c r="L88" s="231"/>
+      <c r="M88" s="231"/>
+      <c r="N88" s="232"/>
+      <c r="O88" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="P88" s="14"/>
+      <c r="Q88" s="14"/>
+      <c r="R88" s="14"/>
+      <c r="S88" s="14"/>
+      <c r="T88" s="14"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="5"/>
+      <c r="W88" s="5"/>
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5"/>
+      <c r="Z88" s="6"/>
     </row>
     <row r="89" spans="1:26" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
@@ -5272,18 +5312,18 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c r="H89" s="9"/>
-      <c r="I89" s="227"/>
-      <c r="J89" s="228"/>
-      <c r="K89" s="228"/>
-      <c r="L89" s="228"/>
-      <c r="M89" s="228"/>
-      <c r="N89" s="229"/>
-      <c r="O89" s="212"/>
-      <c r="P89" s="213"/>
-      <c r="Q89" s="213"/>
-      <c r="R89" s="213"/>
-      <c r="S89" s="213"/>
-      <c r="T89" s="214"/>
+      <c r="I89" s="233"/>
+      <c r="J89" s="234"/>
+      <c r="K89" s="234"/>
+      <c r="L89" s="234"/>
+      <c r="M89" s="234"/>
+      <c r="N89" s="235"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="16"/>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="16"/>
+      <c r="S89" s="16"/>
+      <c r="T89" s="16"/>
       <c r="U89" s="7"/>
       <c r="V89" s="8"/>
       <c r="W89" s="8"/>
@@ -5304,18 +5344,18 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c r="H90" s="9"/>
-      <c r="I90" s="227"/>
-      <c r="J90" s="228"/>
-      <c r="K90" s="228"/>
-      <c r="L90" s="228"/>
-      <c r="M90" s="228"/>
-      <c r="N90" s="229"/>
-      <c r="O90" s="212"/>
-      <c r="P90" s="213"/>
-      <c r="Q90" s="213"/>
-      <c r="R90" s="213"/>
-      <c r="S90" s="213"/>
-      <c r="T90" s="214"/>
+      <c r="I90" s="233"/>
+      <c r="J90" s="234"/>
+      <c r="K90" s="234"/>
+      <c r="L90" s="234"/>
+      <c r="M90" s="234"/>
+      <c r="N90" s="235"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="16"/>
+      <c r="Q90" s="16"/>
+      <c r="R90" s="16"/>
+      <c r="S90" s="16"/>
+      <c r="T90" s="16"/>
       <c r="U90" s="7"/>
       <c r="V90" s="8"/>
       <c r="W90" s="8"/>
@@ -5336,18 +5376,18 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="9"/>
-      <c r="I91" s="227"/>
-      <c r="J91" s="228"/>
-      <c r="K91" s="228"/>
-      <c r="L91" s="228"/>
-      <c r="M91" s="228"/>
-      <c r="N91" s="229"/>
-      <c r="O91" s="212"/>
-      <c r="P91" s="213"/>
-      <c r="Q91" s="213"/>
-      <c r="R91" s="213"/>
-      <c r="S91" s="213"/>
-      <c r="T91" s="214"/>
+      <c r="I91" s="233"/>
+      <c r="J91" s="234"/>
+      <c r="K91" s="234"/>
+      <c r="L91" s="234"/>
+      <c r="M91" s="234"/>
+      <c r="N91" s="235"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="16"/>
+      <c r="Q91" s="16"/>
+      <c r="R91" s="16"/>
+      <c r="S91" s="16"/>
+      <c r="T91" s="16"/>
       <c r="U91" s="7"/>
       <c r="V91" s="8"/>
       <c r="W91" s="8"/>
@@ -5368,18 +5408,18 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="9"/>
-      <c r="I92" s="227"/>
-      <c r="J92" s="228"/>
-      <c r="K92" s="228"/>
-      <c r="L92" s="228"/>
-      <c r="M92" s="228"/>
-      <c r="N92" s="229"/>
-      <c r="O92" s="212"/>
-      <c r="P92" s="213"/>
-      <c r="Q92" s="213"/>
-      <c r="R92" s="213"/>
-      <c r="S92" s="213"/>
-      <c r="T92" s="214"/>
+      <c r="I92" s="233"/>
+      <c r="J92" s="234"/>
+      <c r="K92" s="234"/>
+      <c r="L92" s="234"/>
+      <c r="M92" s="234"/>
+      <c r="N92" s="235"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="16"/>
+      <c r="Q92" s="16"/>
+      <c r="R92" s="16"/>
+      <c r="S92" s="16"/>
+      <c r="T92" s="16"/>
       <c r="U92" s="7"/>
       <c r="V92" s="8"/>
       <c r="W92" s="8"/>
@@ -5400,18 +5440,18 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c r="H93" s="9"/>
-      <c r="I93" s="227"/>
-      <c r="J93" s="228"/>
-      <c r="K93" s="228"/>
-      <c r="L93" s="228"/>
-      <c r="M93" s="228"/>
-      <c r="N93" s="229"/>
-      <c r="O93" s="212"/>
-      <c r="P93" s="213"/>
-      <c r="Q93" s="213"/>
-      <c r="R93" s="213"/>
-      <c r="S93" s="213"/>
-      <c r="T93" s="214"/>
+      <c r="I93" s="233"/>
+      <c r="J93" s="234"/>
+      <c r="K93" s="234"/>
+      <c r="L93" s="234"/>
+      <c r="M93" s="234"/>
+      <c r="N93" s="235"/>
+      <c r="O93" s="15"/>
+      <c r="P93" s="16"/>
+      <c r="Q93" s="16"/>
+      <c r="R93" s="16"/>
+      <c r="S93" s="16"/>
+      <c r="T93" s="16"/>
       <c r="U93" s="7"/>
       <c r="V93" s="8"/>
       <c r="W93" s="8"/>
@@ -5432,18 +5472,18 @@
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
       <c r="H94" s="12"/>
-      <c r="I94" s="230"/>
-      <c r="J94" s="231"/>
-      <c r="K94" s="231"/>
-      <c r="L94" s="231"/>
-      <c r="M94" s="231"/>
-      <c r="N94" s="232"/>
-      <c r="O94" s="215"/>
-      <c r="P94" s="216"/>
-      <c r="Q94" s="216"/>
-      <c r="R94" s="216"/>
-      <c r="S94" s="216"/>
-      <c r="T94" s="217"/>
+      <c r="I94" s="236"/>
+      <c r="J94" s="237"/>
+      <c r="K94" s="237"/>
+      <c r="L94" s="237"/>
+      <c r="M94" s="237"/>
+      <c r="N94" s="238"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="18"/>
+      <c r="Q94" s="18"/>
+      <c r="R94" s="18"/>
+      <c r="S94" s="18"/>
+      <c r="T94" s="18"/>
       <c r="U94" s="10"/>
       <c r="V94" s="11"/>
       <c r="W94" s="11"/>
@@ -5464,14 +5504,14 @@
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="6"/>
-      <c r="I95" s="263" t="s">
+      <c r="I95" s="221" t="s">
         <v>38</v>
       </c>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="14"/>
-      <c r="M95" s="14"/>
-      <c r="N95" s="15"/>
+      <c r="J95" s="222"/>
+      <c r="K95" s="222"/>
+      <c r="L95" s="222"/>
+      <c r="M95" s="222"/>
+      <c r="N95" s="223"/>
       <c r="O95" s="4"/>
       <c r="P95" s="5"/>
       <c r="Q95" s="5"/>
@@ -5498,12 +5538,12 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c r="H96" s="9"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="18"/>
+      <c r="I96" s="224"/>
+      <c r="J96" s="225"/>
+      <c r="K96" s="225"/>
+      <c r="L96" s="225"/>
+      <c r="M96" s="225"/>
+      <c r="N96" s="226"/>
       <c r="O96" s="7"/>
       <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
@@ -5530,12 +5570,12 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c r="H97" s="9"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="18"/>
+      <c r="I97" s="224"/>
+      <c r="J97" s="225"/>
+      <c r="K97" s="225"/>
+      <c r="L97" s="225"/>
+      <c r="M97" s="225"/>
+      <c r="N97" s="226"/>
       <c r="O97" s="7"/>
       <c r="P97" s="8"/>
       <c r="Q97" s="8"/>
@@ -5562,12 +5602,12 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c r="H98" s="9"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="18"/>
+      <c r="I98" s="224"/>
+      <c r="J98" s="225"/>
+      <c r="K98" s="225"/>
+      <c r="L98" s="225"/>
+      <c r="M98" s="225"/>
+      <c r="N98" s="226"/>
       <c r="O98" s="7"/>
       <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
@@ -5594,12 +5634,12 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="9"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="17"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="18"/>
+      <c r="I99" s="224"/>
+      <c r="J99" s="225"/>
+      <c r="K99" s="225"/>
+      <c r="L99" s="225"/>
+      <c r="M99" s="225"/>
+      <c r="N99" s="226"/>
       <c r="O99" s="7"/>
       <c r="P99" s="8"/>
       <c r="Q99" s="8"/>
@@ -5626,12 +5666,12 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="9"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="17"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="18"/>
+      <c r="I100" s="224"/>
+      <c r="J100" s="225"/>
+      <c r="K100" s="225"/>
+      <c r="L100" s="225"/>
+      <c r="M100" s="225"/>
+      <c r="N100" s="226"/>
       <c r="O100" s="7"/>
       <c r="P100" s="8"/>
       <c r="Q100" s="8"/>
@@ -5658,12 +5698,12 @@
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
       <c r="H101" s="12"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="20"/>
-      <c r="K101" s="20"/>
-      <c r="L101" s="20"/>
-      <c r="M101" s="20"/>
-      <c r="N101" s="21"/>
+      <c r="I101" s="227"/>
+      <c r="J101" s="228"/>
+      <c r="K101" s="228"/>
+      <c r="L101" s="228"/>
+      <c r="M101" s="228"/>
+      <c r="N101" s="229"/>
       <c r="O101" s="10"/>
       <c r="P101" s="11"/>
       <c r="Q101" s="11"/>
@@ -5914,14 +5954,14 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="6"/>
-      <c r="I109" s="13" t="s">
+      <c r="I109" s="239" t="s">
         <v>30</v>
       </c>
-      <c r="J109" s="14"/>
-      <c r="K109" s="14"/>
-      <c r="L109" s="14"/>
-      <c r="M109" s="14"/>
-      <c r="N109" s="15"/>
+      <c r="J109" s="222"/>
+      <c r="K109" s="222"/>
+      <c r="L109" s="222"/>
+      <c r="M109" s="222"/>
+      <c r="N109" s="223"/>
       <c r="O109" s="4"/>
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
@@ -5948,12 +5988,12 @@
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c r="H110" s="9"/>
-      <c r="I110" s="16"/>
-      <c r="J110" s="17"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="18"/>
+      <c r="I110" s="224"/>
+      <c r="J110" s="225"/>
+      <c r="K110" s="225"/>
+      <c r="L110" s="225"/>
+      <c r="M110" s="225"/>
+      <c r="N110" s="226"/>
       <c r="O110" s="7"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
@@ -5980,12 +6020,12 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="9"/>
-      <c r="I111" s="16"/>
-      <c r="J111" s="17"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="18"/>
+      <c r="I111" s="224"/>
+      <c r="J111" s="225"/>
+      <c r="K111" s="225"/>
+      <c r="L111" s="225"/>
+      <c r="M111" s="225"/>
+      <c r="N111" s="226"/>
       <c r="O111" s="7"/>
       <c r="P111" s="8"/>
       <c r="Q111" s="8"/>
@@ -6012,12 +6052,12 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="9"/>
-      <c r="I112" s="16"/>
-      <c r="J112" s="17"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="18"/>
+      <c r="I112" s="224"/>
+      <c r="J112" s="225"/>
+      <c r="K112" s="225"/>
+      <c r="L112" s="225"/>
+      <c r="M112" s="225"/>
+      <c r="N112" s="226"/>
       <c r="O112" s="7"/>
       <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
@@ -6044,12 +6084,12 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c r="H113" s="9"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="17"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="18"/>
+      <c r="I113" s="224"/>
+      <c r="J113" s="225"/>
+      <c r="K113" s="225"/>
+      <c r="L113" s="225"/>
+      <c r="M113" s="225"/>
+      <c r="N113" s="226"/>
       <c r="O113" s="7"/>
       <c r="P113" s="8"/>
       <c r="Q113" s="8"/>
@@ -6076,12 +6116,12 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="9"/>
-      <c r="I114" s="16"/>
-      <c r="J114" s="17"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="18"/>
+      <c r="I114" s="224"/>
+      <c r="J114" s="225"/>
+      <c r="K114" s="225"/>
+      <c r="L114" s="225"/>
+      <c r="M114" s="225"/>
+      <c r="N114" s="226"/>
       <c r="O114" s="7"/>
       <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
@@ -6108,12 +6148,12 @@
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
       <c r="H115" s="12"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="20"/>
-      <c r="K115" s="20"/>
-      <c r="L115" s="20"/>
-      <c r="M115" s="20"/>
-      <c r="N115" s="21"/>
+      <c r="I115" s="227"/>
+      <c r="J115" s="228"/>
+      <c r="K115" s="228"/>
+      <c r="L115" s="228"/>
+      <c r="M115" s="228"/>
+      <c r="N115" s="229"/>
       <c r="O115" s="10"/>
       <c r="P115" s="11"/>
       <c r="Q115" s="11"/>
@@ -6705,8 +6745,65 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="C109:H115"/>
+    <mergeCell ref="I109:N115"/>
+    <mergeCell ref="O109:T115"/>
+    <mergeCell ref="U109:Z115"/>
+    <mergeCell ref="U74:Z80"/>
+    <mergeCell ref="U81:Z87"/>
+    <mergeCell ref="C88:H94"/>
+    <mergeCell ref="I88:N94"/>
+    <mergeCell ref="U88:Z94"/>
+    <mergeCell ref="O74:T80"/>
+    <mergeCell ref="C102:H108"/>
+    <mergeCell ref="I102:N108"/>
+    <mergeCell ref="O102:T108"/>
+    <mergeCell ref="U102:Z108"/>
+    <mergeCell ref="C74:H80"/>
+    <mergeCell ref="I74:N80"/>
+    <mergeCell ref="O81:T87"/>
+    <mergeCell ref="I81:N87"/>
+    <mergeCell ref="C95:H101"/>
+    <mergeCell ref="I95:N101"/>
+    <mergeCell ref="O95:T101"/>
+    <mergeCell ref="U95:Z101"/>
+    <mergeCell ref="C81:H87"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:H3"/>
+    <mergeCell ref="I1:N3"/>
+    <mergeCell ref="O1:T3"/>
+    <mergeCell ref="U1:Z3"/>
+    <mergeCell ref="C5:Z7"/>
+    <mergeCell ref="U4:Z4"/>
+    <mergeCell ref="C8:H10"/>
+    <mergeCell ref="U8:Z10"/>
+    <mergeCell ref="I8:T10"/>
+    <mergeCell ref="C11:H17"/>
+    <mergeCell ref="I11:N17"/>
+    <mergeCell ref="O11:T17"/>
+    <mergeCell ref="U11:Z17"/>
+    <mergeCell ref="C18:H24"/>
+    <mergeCell ref="I18:N24"/>
+    <mergeCell ref="O18:T24"/>
+    <mergeCell ref="U18:Z24"/>
+    <mergeCell ref="C25:H31"/>
+    <mergeCell ref="I25:N31"/>
+    <mergeCell ref="O25:T31"/>
+    <mergeCell ref="U25:Z31"/>
+    <mergeCell ref="C32:H38"/>
+    <mergeCell ref="I32:N38"/>
+    <mergeCell ref="O32:T38"/>
+    <mergeCell ref="U32:Z38"/>
+    <mergeCell ref="C39:H45"/>
+    <mergeCell ref="I39:N45"/>
+    <mergeCell ref="O39:T45"/>
+    <mergeCell ref="U39:Z45"/>
+    <mergeCell ref="C46:H52"/>
+    <mergeCell ref="I46:N52"/>
+    <mergeCell ref="U46:Z52"/>
+    <mergeCell ref="O46:T52"/>
     <mergeCell ref="C67:H73"/>
-    <mergeCell ref="O81:T87"/>
+    <mergeCell ref="O88:T94"/>
     <mergeCell ref="U67:Z73"/>
     <mergeCell ref="C53:H59"/>
     <mergeCell ref="I53:N59"/>
@@ -6716,65 +6813,8 @@
     <mergeCell ref="U60:Z66"/>
     <mergeCell ref="I60:N66"/>
     <mergeCell ref="O53:T59"/>
-    <mergeCell ref="C39:H45"/>
-    <mergeCell ref="I39:N45"/>
-    <mergeCell ref="O39:T45"/>
-    <mergeCell ref="U39:Z45"/>
-    <mergeCell ref="C46:H52"/>
-    <mergeCell ref="I46:N52"/>
-    <mergeCell ref="U46:Z52"/>
-    <mergeCell ref="O46:T52"/>
-    <mergeCell ref="C25:H31"/>
-    <mergeCell ref="I25:N31"/>
-    <mergeCell ref="O25:T31"/>
-    <mergeCell ref="U25:Z31"/>
-    <mergeCell ref="C32:H38"/>
-    <mergeCell ref="I32:N38"/>
-    <mergeCell ref="O32:T38"/>
-    <mergeCell ref="U32:Z38"/>
-    <mergeCell ref="C11:H17"/>
-    <mergeCell ref="I11:N17"/>
-    <mergeCell ref="O11:T17"/>
-    <mergeCell ref="U11:Z17"/>
-    <mergeCell ref="C18:H24"/>
-    <mergeCell ref="I18:N24"/>
-    <mergeCell ref="O18:T24"/>
-    <mergeCell ref="U18:Z24"/>
-    <mergeCell ref="C5:Z7"/>
-    <mergeCell ref="U4:Z4"/>
-    <mergeCell ref="C8:H10"/>
-    <mergeCell ref="U8:Z10"/>
-    <mergeCell ref="I8:T10"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:H3"/>
-    <mergeCell ref="I1:N3"/>
-    <mergeCell ref="O1:T3"/>
-    <mergeCell ref="U1:Z3"/>
     <mergeCell ref="O67:T73"/>
-    <mergeCell ref="C102:H108"/>
-    <mergeCell ref="I102:N108"/>
-    <mergeCell ref="O102:T108"/>
-    <mergeCell ref="U102:Z108"/>
-    <mergeCell ref="C74:H80"/>
-    <mergeCell ref="I74:N80"/>
-    <mergeCell ref="O88:T94"/>
-    <mergeCell ref="O74:T80"/>
-    <mergeCell ref="I81:N87"/>
     <mergeCell ref="I67:N73"/>
-    <mergeCell ref="C95:H101"/>
-    <mergeCell ref="I95:N101"/>
-    <mergeCell ref="O95:T101"/>
-    <mergeCell ref="U95:Z101"/>
-    <mergeCell ref="C81:H87"/>
-    <mergeCell ref="C109:H115"/>
-    <mergeCell ref="I109:N115"/>
-    <mergeCell ref="O109:T115"/>
-    <mergeCell ref="U109:Z115"/>
-    <mergeCell ref="U74:Z80"/>
-    <mergeCell ref="U81:Z87"/>
-    <mergeCell ref="C88:H94"/>
-    <mergeCell ref="I88:N94"/>
-    <mergeCell ref="U88:Z94"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
